--- a/캠핑장.xlsx
+++ b/캠핑장.xlsx
@@ -19,9 +19,6 @@
     <t>캠핑장</t>
   </si>
   <si>
-    <t>작성자 : 권석현</t>
-  </si>
-  <si>
     <t>작성일 : 2018년 8월 10일 (금)</t>
   </si>
   <si>
@@ -272,6 +269,10 @@
   </si>
   <si>
     <t>2018년 9월 2일</t>
+  </si>
+  <si>
+    <t>작성자 : 권석현!</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -480,19 +481,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2787,7 +2788,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2799,10 +2800,10 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:AR3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="35.140625" customWidth="1"/>
@@ -2862,7 +2863,7 @@
       <c r="AR1" s="13"/>
     </row>
     <row r="2" spans="1:44" ht="18" customHeight="1">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="13"/>
@@ -2911,7 +2912,7 @@
     </row>
     <row r="3" spans="1:44" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="13" t="s">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
@@ -2959,7 +2960,7 @@
     </row>
     <row r="4" spans="1:44" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="13" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -3052,78 +3053,78 @@
       <c r="AR5" s="13"/>
     </row>
     <row r="6" spans="1:44" ht="17.100000000000001" customHeight="1">
-      <c r="A6" s="15"/>
-      <c r="B6" s="17" t="s">
+      <c r="A6" s="17"/>
+      <c r="B6" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="D6" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="E6" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="F6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="G6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="H6" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="I6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="17" t="s">
+      <c r="J6" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17" t="s">
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17" t="s">
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="T6" s="17"/>
-      <c r="U6" s="17"/>
-      <c r="V6" s="17"/>
-      <c r="W6" s="17"/>
-      <c r="X6" s="17"/>
-      <c r="Y6" s="17"/>
-      <c r="Z6" s="17" t="s">
+      <c r="AA6" s="15"/>
+      <c r="AB6" s="15"/>
+      <c r="AC6" s="15"/>
+      <c r="AD6" s="15"/>
+      <c r="AE6" s="15"/>
+      <c r="AF6" s="15"/>
+      <c r="AG6" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="AA6" s="17"/>
-      <c r="AB6" s="17"/>
-      <c r="AC6" s="17"/>
-      <c r="AD6" s="17"/>
-      <c r="AE6" s="17"/>
-      <c r="AF6" s="17"/>
-      <c r="AG6" s="17" t="s">
+      <c r="AH6" s="15"/>
+      <c r="AI6" s="15"/>
+      <c r="AJ6" s="15"/>
+      <c r="AK6" s="15"/>
+      <c r="AL6" s="15"/>
+      <c r="AM6" s="15"/>
+      <c r="AN6" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="AH6" s="17"/>
-      <c r="AI6" s="17"/>
-      <c r="AJ6" s="17"/>
-      <c r="AK6" s="17"/>
-      <c r="AL6" s="17"/>
-      <c r="AM6" s="17"/>
-      <c r="AN6" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="AO6" s="17"/>
-      <c r="AP6" s="17"/>
-      <c r="AQ6" s="17"/>
-      <c r="AR6" s="17"/>
+      <c r="AO6" s="15"/>
+      <c r="AP6" s="15"/>
+      <c r="AQ6" s="15"/>
+      <c r="AR6" s="15"/>
     </row>
     <row r="7" spans="1:44" ht="17.100000000000001" customHeight="1">
       <c r="A7" s="16"/>
@@ -3246,22 +3247,22 @@
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>14</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
@@ -3304,24 +3305,24 @@
         <v>2</v>
       </c>
       <c r="B9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="D9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="E9" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="F9" s="9" t="s">
         <v>19</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>20</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
@@ -3364,24 +3365,24 @@
         <v>3</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="F10" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
@@ -3424,24 +3425,24 @@
         <v>4</v>
       </c>
       <c r="B11" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="9" t="s">
+      <c r="E11" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="9" t="s">
         <v>26</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>27</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
@@ -3484,24 +3485,24 @@
         <v>5</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
@@ -3544,24 +3545,24 @@
         <v>6</v>
       </c>
       <c r="B13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>33</v>
-      </c>
       <c r="F13" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
@@ -3604,24 +3605,24 @@
         <v>7</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="4" t="s">
+      <c r="E14" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="F14" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>37</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
@@ -3664,24 +3665,24 @@
         <v>8</v>
       </c>
       <c r="B15" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="D15" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="E15" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
@@ -3724,24 +3725,24 @@
         <v>9</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>42</v>
-      </c>
       <c r="F16" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
@@ -3784,24 +3785,24 @@
         <v>10</v>
       </c>
       <c r="B17" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="9" t="s">
+      <c r="F17" s="9" t="s">
         <v>44</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>45</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
@@ -3844,24 +3845,24 @@
         <v>11</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
@@ -3904,24 +3905,24 @@
         <v>12</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
@@ -3964,24 +3965,24 @@
         <v>13</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
@@ -4024,24 +4025,24 @@
         <v>14</v>
       </c>
       <c r="B21" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>52</v>
-      </c>
       <c r="F21" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
       <c r="I21" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J21" s="10"/>
       <c r="K21" s="10"/>
@@ -4084,24 +4085,24 @@
         <v>15</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>54</v>
-      </c>
       <c r="D22" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
@@ -4144,24 +4145,24 @@
         <v>16</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
       <c r="I23" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
@@ -4204,24 +4205,24 @@
         <v>17</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
@@ -4264,24 +4265,24 @@
         <v>18</v>
       </c>
       <c r="B25" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>60</v>
-      </c>
       <c r="F25" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
       <c r="I25" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J25" s="10"/>
       <c r="K25" s="10"/>
@@ -4324,24 +4325,24 @@
         <v>19</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F26" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
@@ -4384,24 +4385,24 @@
         <v>20</v>
       </c>
       <c r="B27" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>64</v>
-      </c>
       <c r="F27" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
       <c r="I27" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J27" s="10"/>
       <c r="K27" s="10"/>
@@ -4444,24 +4445,24 @@
         <v>21</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
@@ -4504,24 +4505,24 @@
         <v>22</v>
       </c>
       <c r="B29" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C29" s="9" t="s">
-        <v>67</v>
-      </c>
       <c r="D29" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
       <c r="I29" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J29" s="10"/>
       <c r="K29" s="10"/>
@@ -4564,24 +4565,24 @@
         <v>23</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D30" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E30" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="F30" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
@@ -4624,24 +4625,24 @@
         <v>24</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
       <c r="I31" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J31" s="10"/>
       <c r="K31" s="10"/>
@@ -4684,24 +4685,24 @@
         <v>25</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>71</v>
-      </c>
       <c r="D32" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
@@ -4744,24 +4745,24 @@
         <v>26</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
       <c r="I33" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J33" s="10"/>
       <c r="K33" s="10"/>
@@ -4804,24 +4805,24 @@
         <v>27</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
@@ -4864,24 +4865,24 @@
         <v>28</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
       <c r="I35" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J35" s="10"/>
       <c r="K35" s="10"/>
@@ -4924,24 +4925,24 @@
         <v>29</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F36" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>76</v>
       </c>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
@@ -4984,24 +4985,24 @@
         <v>30</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
       <c r="I37" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J37" s="10"/>
       <c r="K37" s="10"/>
@@ -5044,24 +5045,24 @@
         <v>31</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
@@ -5146,8 +5147,8 @@
       <c r="AR39" s="13"/>
     </row>
     <row r="40" spans="1:44" ht="18" customHeight="1">
-      <c r="A40" s="18" t="s">
-        <v>79</v>
+      <c r="A40" s="14" t="s">
+        <v>78</v>
       </c>
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
@@ -5195,6 +5196,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="A1:AR1"/>
+    <mergeCell ref="A2:AR2"/>
+    <mergeCell ref="A3:AR3"/>
+    <mergeCell ref="A4:AR4"/>
+    <mergeCell ref="A5:AR5"/>
     <mergeCell ref="A39:AR39"/>
     <mergeCell ref="A40:AR40"/>
     <mergeCell ref="L6:R6"/>
@@ -5211,12 +5218,6 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="A1:AR1"/>
-    <mergeCell ref="A2:AR2"/>
-    <mergeCell ref="A3:AR3"/>
-    <mergeCell ref="A4:AR4"/>
-    <mergeCell ref="A5:AR5"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/캠핑장.xlsx
+++ b/캠핑장.xlsx
@@ -271,7 +271,7 @@
     <t>2018년 9월 2일</t>
   </si>
   <si>
-    <t>작성자 : 권석현!</t>
+    <t>작성자 : 권석현</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -475,26 +475,26 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2788,7 +2788,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2817,325 +2817,325 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="3.95" customHeight="1">
-      <c r="A1" s="12"/>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="13"/>
-      <c r="Z1" s="13"/>
-      <c r="AA1" s="13"/>
-      <c r="AB1" s="13"/>
-      <c r="AC1" s="13"/>
-      <c r="AD1" s="13"/>
-      <c r="AE1" s="13"/>
-      <c r="AF1" s="13"/>
-      <c r="AG1" s="13"/>
-      <c r="AH1" s="13"/>
-      <c r="AI1" s="13"/>
-      <c r="AJ1" s="13"/>
-      <c r="AK1" s="13"/>
-      <c r="AL1" s="13"/>
-      <c r="AM1" s="13"/>
-      <c r="AN1" s="13"/>
-      <c r="AO1" s="13"/>
-      <c r="AP1" s="13"/>
-      <c r="AQ1" s="13"/>
-      <c r="AR1" s="13"/>
+      <c r="A1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="15"/>
+      <c r="AD1" s="15"/>
+      <c r="AE1" s="15"/>
+      <c r="AF1" s="15"/>
+      <c r="AG1" s="15"/>
+      <c r="AH1" s="15"/>
+      <c r="AI1" s="15"/>
+      <c r="AJ1" s="15"/>
+      <c r="AK1" s="15"/>
+      <c r="AL1" s="15"/>
+      <c r="AM1" s="15"/>
+      <c r="AN1" s="15"/>
+      <c r="AO1" s="15"/>
+      <c r="AP1" s="15"/>
+      <c r="AQ1" s="15"/>
+      <c r="AR1" s="15"/>
     </row>
     <row r="2" spans="1:44" ht="18" customHeight="1">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
-      <c r="X2" s="13"/>
-      <c r="Y2" s="13"/>
-      <c r="Z2" s="13"/>
-      <c r="AA2" s="13"/>
-      <c r="AB2" s="13"/>
-      <c r="AC2" s="13"/>
-      <c r="AD2" s="13"/>
-      <c r="AE2" s="13"/>
-      <c r="AF2" s="13"/>
-      <c r="AG2" s="13"/>
-      <c r="AH2" s="13"/>
-      <c r="AI2" s="13"/>
-      <c r="AJ2" s="13"/>
-      <c r="AK2" s="13"/>
-      <c r="AL2" s="13"/>
-      <c r="AM2" s="13"/>
-      <c r="AN2" s="13"/>
-      <c r="AO2" s="13"/>
-      <c r="AP2" s="13"/>
-      <c r="AQ2" s="13"/>
-      <c r="AR2" s="13"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
+      <c r="X2" s="15"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="15"/>
+      <c r="AA2" s="15"/>
+      <c r="AB2" s="15"/>
+      <c r="AC2" s="15"/>
+      <c r="AD2" s="15"/>
+      <c r="AE2" s="15"/>
+      <c r="AF2" s="15"/>
+      <c r="AG2" s="15"/>
+      <c r="AH2" s="15"/>
+      <c r="AI2" s="15"/>
+      <c r="AJ2" s="15"/>
+      <c r="AK2" s="15"/>
+      <c r="AL2" s="15"/>
+      <c r="AM2" s="15"/>
+      <c r="AN2" s="15"/>
+      <c r="AO2" s="15"/>
+      <c r="AP2" s="15"/>
+      <c r="AQ2" s="15"/>
+      <c r="AR2" s="15"/>
     </row>
     <row r="3" spans="1:44" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13"/>
-      <c r="V3" s="13"/>
-      <c r="W3" s="13"/>
-      <c r="X3" s="13"/>
-      <c r="Y3" s="13"/>
-      <c r="Z3" s="13"/>
-      <c r="AA3" s="13"/>
-      <c r="AB3" s="13"/>
-      <c r="AC3" s="13"/>
-      <c r="AD3" s="13"/>
-      <c r="AE3" s="13"/>
-      <c r="AF3" s="13"/>
-      <c r="AG3" s="13"/>
-      <c r="AH3" s="13"/>
-      <c r="AI3" s="13"/>
-      <c r="AJ3" s="13"/>
-      <c r="AK3" s="13"/>
-      <c r="AL3" s="13"/>
-      <c r="AM3" s="13"/>
-      <c r="AN3" s="13"/>
-      <c r="AO3" s="13"/>
-      <c r="AP3" s="13"/>
-      <c r="AQ3" s="13"/>
-      <c r="AR3" s="13"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="15"/>
+      <c r="X3" s="15"/>
+      <c r="Y3" s="15"/>
+      <c r="Z3" s="15"/>
+      <c r="AA3" s="15"/>
+      <c r="AB3" s="15"/>
+      <c r="AC3" s="15"/>
+      <c r="AD3" s="15"/>
+      <c r="AE3" s="15"/>
+      <c r="AF3" s="15"/>
+      <c r="AG3" s="15"/>
+      <c r="AH3" s="15"/>
+      <c r="AI3" s="15"/>
+      <c r="AJ3" s="15"/>
+      <c r="AK3" s="15"/>
+      <c r="AL3" s="15"/>
+      <c r="AM3" s="15"/>
+      <c r="AN3" s="15"/>
+      <c r="AO3" s="15"/>
+      <c r="AP3" s="15"/>
+      <c r="AQ3" s="15"/>
+      <c r="AR3" s="15"/>
     </row>
     <row r="4" spans="1:44" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="13"/>
-      <c r="Y4" s="13"/>
-      <c r="Z4" s="13"/>
-      <c r="AA4" s="13"/>
-      <c r="AB4" s="13"/>
-      <c r="AC4" s="13"/>
-      <c r="AD4" s="13"/>
-      <c r="AE4" s="13"/>
-      <c r="AF4" s="13"/>
-      <c r="AG4" s="13"/>
-      <c r="AH4" s="13"/>
-      <c r="AI4" s="13"/>
-      <c r="AJ4" s="13"/>
-      <c r="AK4" s="13"/>
-      <c r="AL4" s="13"/>
-      <c r="AM4" s="13"/>
-      <c r="AN4" s="13"/>
-      <c r="AO4" s="13"/>
-      <c r="AP4" s="13"/>
-      <c r="AQ4" s="13"/>
-      <c r="AR4" s="13"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="15"/>
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="15"/>
+      <c r="AA4" s="15"/>
+      <c r="AB4" s="15"/>
+      <c r="AC4" s="15"/>
+      <c r="AD4" s="15"/>
+      <c r="AE4" s="15"/>
+      <c r="AF4" s="15"/>
+      <c r="AG4" s="15"/>
+      <c r="AH4" s="15"/>
+      <c r="AI4" s="15"/>
+      <c r="AJ4" s="15"/>
+      <c r="AK4" s="15"/>
+      <c r="AL4" s="15"/>
+      <c r="AM4" s="15"/>
+      <c r="AN4" s="15"/>
+      <c r="AO4" s="15"/>
+      <c r="AP4" s="15"/>
+      <c r="AQ4" s="15"/>
+      <c r="AR4" s="15"/>
     </row>
     <row r="5" spans="1:44" ht="3.95" customHeight="1">
-      <c r="A5" s="12"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13"/>
-      <c r="W5" s="13"/>
-      <c r="X5" s="13"/>
-      <c r="Y5" s="13"/>
-      <c r="Z5" s="13"/>
-      <c r="AA5" s="13"/>
-      <c r="AB5" s="13"/>
-      <c r="AC5" s="13"/>
-      <c r="AD5" s="13"/>
-      <c r="AE5" s="13"/>
-      <c r="AF5" s="13"/>
-      <c r="AG5" s="13"/>
-      <c r="AH5" s="13"/>
-      <c r="AI5" s="13"/>
-      <c r="AJ5" s="13"/>
-      <c r="AK5" s="13"/>
-      <c r="AL5" s="13"/>
-      <c r="AM5" s="13"/>
-      <c r="AN5" s="13"/>
-      <c r="AO5" s="13"/>
-      <c r="AP5" s="13"/>
-      <c r="AQ5" s="13"/>
-      <c r="AR5" s="13"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="15"/>
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="15"/>
+      <c r="AA5" s="15"/>
+      <c r="AB5" s="15"/>
+      <c r="AC5" s="15"/>
+      <c r="AD5" s="15"/>
+      <c r="AE5" s="15"/>
+      <c r="AF5" s="15"/>
+      <c r="AG5" s="15"/>
+      <c r="AH5" s="15"/>
+      <c r="AI5" s="15"/>
+      <c r="AJ5" s="15"/>
+      <c r="AK5" s="15"/>
+      <c r="AL5" s="15"/>
+      <c r="AM5" s="15"/>
+      <c r="AN5" s="15"/>
+      <c r="AO5" s="15"/>
+      <c r="AP5" s="15"/>
+      <c r="AQ5" s="15"/>
+      <c r="AR5" s="15"/>
     </row>
     <row r="6" spans="1:44" ht="17.100000000000001" customHeight="1">
-      <c r="A6" s="17"/>
-      <c r="B6" s="15" t="s">
+      <c r="A6" s="18"/>
+      <c r="B6" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="I6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="J6" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15" t="s">
+      <c r="K6" s="12"/>
+      <c r="L6" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15" t="s">
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="T6" s="15"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="15"/>
-      <c r="W6" s="15"/>
-      <c r="X6" s="15"/>
-      <c r="Y6" s="15"/>
-      <c r="Z6" s="15" t="s">
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="AA6" s="15"/>
-      <c r="AB6" s="15"/>
-      <c r="AC6" s="15"/>
-      <c r="AD6" s="15"/>
-      <c r="AE6" s="15"/>
-      <c r="AF6" s="15"/>
-      <c r="AG6" s="15" t="s">
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="12"/>
+      <c r="AE6" s="12"/>
+      <c r="AF6" s="12"/>
+      <c r="AG6" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="AH6" s="15"/>
-      <c r="AI6" s="15"/>
-      <c r="AJ6" s="15"/>
-      <c r="AK6" s="15"/>
-      <c r="AL6" s="15"/>
-      <c r="AM6" s="15"/>
-      <c r="AN6" s="15" t="s">
+      <c r="AH6" s="12"/>
+      <c r="AI6" s="12"/>
+      <c r="AJ6" s="12"/>
+      <c r="AK6" s="12"/>
+      <c r="AL6" s="12"/>
+      <c r="AM6" s="12"/>
+      <c r="AN6" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="AO6" s="15"/>
-      <c r="AP6" s="15"/>
-      <c r="AQ6" s="15"/>
-      <c r="AR6" s="15"/>
+      <c r="AO6" s="12"/>
+      <c r="AP6" s="12"/>
+      <c r="AQ6" s="12"/>
+      <c r="AR6" s="12"/>
     </row>
     <row r="7" spans="1:44" ht="17.100000000000001" customHeight="1">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
       <c r="J7" s="1">
         <v>3</v>
       </c>
@@ -5101,107 +5101,101 @@
       <c r="AR38" s="5"/>
     </row>
     <row r="39" spans="1:44" ht="3.95" customHeight="1">
-      <c r="A39" s="12"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="13"/>
-      <c r="L39" s="13"/>
-      <c r="M39" s="13"/>
-      <c r="N39" s="13"/>
-      <c r="O39" s="13"/>
-      <c r="P39" s="13"/>
-      <c r="Q39" s="13"/>
-      <c r="R39" s="13"/>
-      <c r="S39" s="13"/>
-      <c r="T39" s="13"/>
-      <c r="U39" s="13"/>
-      <c r="V39" s="13"/>
-      <c r="W39" s="13"/>
-      <c r="X39" s="13"/>
-      <c r="Y39" s="13"/>
-      <c r="Z39" s="13"/>
-      <c r="AA39" s="13"/>
-      <c r="AB39" s="13"/>
-      <c r="AC39" s="13"/>
-      <c r="AD39" s="13"/>
-      <c r="AE39" s="13"/>
-      <c r="AF39" s="13"/>
-      <c r="AG39" s="13"/>
-      <c r="AH39" s="13"/>
-      <c r="AI39" s="13"/>
-      <c r="AJ39" s="13"/>
-      <c r="AK39" s="13"/>
-      <c r="AL39" s="13"/>
-      <c r="AM39" s="13"/>
-      <c r="AN39" s="13"/>
-      <c r="AO39" s="13"/>
-      <c r="AP39" s="13"/>
-      <c r="AQ39" s="13"/>
-      <c r="AR39" s="13"/>
+      <c r="A39" s="14"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="15"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="15"/>
+      <c r="O39" s="15"/>
+      <c r="P39" s="15"/>
+      <c r="Q39" s="15"/>
+      <c r="R39" s="15"/>
+      <c r="S39" s="15"/>
+      <c r="T39" s="15"/>
+      <c r="U39" s="15"/>
+      <c r="V39" s="15"/>
+      <c r="W39" s="15"/>
+      <c r="X39" s="15"/>
+      <c r="Y39" s="15"/>
+      <c r="Z39" s="15"/>
+      <c r="AA39" s="15"/>
+      <c r="AB39" s="15"/>
+      <c r="AC39" s="15"/>
+      <c r="AD39" s="15"/>
+      <c r="AE39" s="15"/>
+      <c r="AF39" s="15"/>
+      <c r="AG39" s="15"/>
+      <c r="AH39" s="15"/>
+      <c r="AI39" s="15"/>
+      <c r="AJ39" s="15"/>
+      <c r="AK39" s="15"/>
+      <c r="AL39" s="15"/>
+      <c r="AM39" s="15"/>
+      <c r="AN39" s="15"/>
+      <c r="AO39" s="15"/>
+      <c r="AP39" s="15"/>
+      <c r="AQ39" s="15"/>
+      <c r="AR39" s="15"/>
     </row>
     <row r="40" spans="1:44" ht="18" customHeight="1">
-      <c r="A40" s="14" t="s">
+      <c r="A40" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="13"/>
-      <c r="L40" s="13"/>
-      <c r="M40" s="13"/>
-      <c r="N40" s="13"/>
-      <c r="O40" s="13"/>
-      <c r="P40" s="13"/>
-      <c r="Q40" s="13"/>
-      <c r="R40" s="13"/>
-      <c r="S40" s="13"/>
-      <c r="T40" s="13"/>
-      <c r="U40" s="13"/>
-      <c r="V40" s="13"/>
-      <c r="W40" s="13"/>
-      <c r="X40" s="13"/>
-      <c r="Y40" s="13"/>
-      <c r="Z40" s="13"/>
-      <c r="AA40" s="13"/>
-      <c r="AB40" s="13"/>
-      <c r="AC40" s="13"/>
-      <c r="AD40" s="13"/>
-      <c r="AE40" s="13"/>
-      <c r="AF40" s="13"/>
-      <c r="AG40" s="13"/>
-      <c r="AH40" s="13"/>
-      <c r="AI40" s="13"/>
-      <c r="AJ40" s="13"/>
-      <c r="AK40" s="13"/>
-      <c r="AL40" s="13"/>
-      <c r="AM40" s="13"/>
-      <c r="AN40" s="13"/>
-      <c r="AO40" s="13"/>
-      <c r="AP40" s="13"/>
-      <c r="AQ40" s="13"/>
-      <c r="AR40" s="13"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="15"/>
+      <c r="L40" s="15"/>
+      <c r="M40" s="15"/>
+      <c r="N40" s="15"/>
+      <c r="O40" s="15"/>
+      <c r="P40" s="15"/>
+      <c r="Q40" s="15"/>
+      <c r="R40" s="15"/>
+      <c r="S40" s="15"/>
+      <c r="T40" s="15"/>
+      <c r="U40" s="15"/>
+      <c r="V40" s="15"/>
+      <c r="W40" s="15"/>
+      <c r="X40" s="15"/>
+      <c r="Y40" s="15"/>
+      <c r="Z40" s="15"/>
+      <c r="AA40" s="15"/>
+      <c r="AB40" s="15"/>
+      <c r="AC40" s="15"/>
+      <c r="AD40" s="15"/>
+      <c r="AE40" s="15"/>
+      <c r="AF40" s="15"/>
+      <c r="AG40" s="15"/>
+      <c r="AH40" s="15"/>
+      <c r="AI40" s="15"/>
+      <c r="AJ40" s="15"/>
+      <c r="AK40" s="15"/>
+      <c r="AL40" s="15"/>
+      <c r="AM40" s="15"/>
+      <c r="AN40" s="15"/>
+      <c r="AO40" s="15"/>
+      <c r="AP40" s="15"/>
+      <c r="AQ40" s="15"/>
+      <c r="AR40" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="A1:AR1"/>
-    <mergeCell ref="A2:AR2"/>
-    <mergeCell ref="A3:AR3"/>
-    <mergeCell ref="A4:AR4"/>
-    <mergeCell ref="A5:AR5"/>
     <mergeCell ref="A39:AR39"/>
     <mergeCell ref="A40:AR40"/>
     <mergeCell ref="L6:R6"/>
@@ -5218,6 +5212,12 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="A1:AR1"/>
+    <mergeCell ref="A2:AR2"/>
+    <mergeCell ref="A3:AR3"/>
+    <mergeCell ref="A4:AR4"/>
+    <mergeCell ref="A5:AR5"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/캠핑장.xlsx
+++ b/캠핑장.xlsx
@@ -271,7 +271,7 @@
     <t>2018년 9월 2일</t>
   </si>
   <si>
-    <t>작성자 : 권석현</t>
+    <t>작성자 : 권석현 쿠헤헤헤</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -475,26 +475,26 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2788,7 +2788,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2817,325 +2817,325 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="3.95" customHeight="1">
-      <c r="A1" s="14"/>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
-      <c r="X1" s="15"/>
-      <c r="Y1" s="15"/>
-      <c r="Z1" s="15"/>
-      <c r="AA1" s="15"/>
-      <c r="AB1" s="15"/>
-      <c r="AC1" s="15"/>
-      <c r="AD1" s="15"/>
-      <c r="AE1" s="15"/>
-      <c r="AF1" s="15"/>
-      <c r="AG1" s="15"/>
-      <c r="AH1" s="15"/>
-      <c r="AI1" s="15"/>
-      <c r="AJ1" s="15"/>
-      <c r="AK1" s="15"/>
-      <c r="AL1" s="15"/>
-      <c r="AM1" s="15"/>
-      <c r="AN1" s="15"/>
-      <c r="AO1" s="15"/>
-      <c r="AP1" s="15"/>
-      <c r="AQ1" s="15"/>
-      <c r="AR1" s="15"/>
+      <c r="A1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
+      <c r="AA1" s="13"/>
+      <c r="AB1" s="13"/>
+      <c r="AC1" s="13"/>
+      <c r="AD1" s="13"/>
+      <c r="AE1" s="13"/>
+      <c r="AF1" s="13"/>
+      <c r="AG1" s="13"/>
+      <c r="AH1" s="13"/>
+      <c r="AI1" s="13"/>
+      <c r="AJ1" s="13"/>
+      <c r="AK1" s="13"/>
+      <c r="AL1" s="13"/>
+      <c r="AM1" s="13"/>
+      <c r="AN1" s="13"/>
+      <c r="AO1" s="13"/>
+      <c r="AP1" s="13"/>
+      <c r="AQ1" s="13"/>
+      <c r="AR1" s="13"/>
     </row>
     <row r="2" spans="1:44" ht="18" customHeight="1">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="15"/>
-      <c r="X2" s="15"/>
-      <c r="Y2" s="15"/>
-      <c r="Z2" s="15"/>
-      <c r="AA2" s="15"/>
-      <c r="AB2" s="15"/>
-      <c r="AC2" s="15"/>
-      <c r="AD2" s="15"/>
-      <c r="AE2" s="15"/>
-      <c r="AF2" s="15"/>
-      <c r="AG2" s="15"/>
-      <c r="AH2" s="15"/>
-      <c r="AI2" s="15"/>
-      <c r="AJ2" s="15"/>
-      <c r="AK2" s="15"/>
-      <c r="AL2" s="15"/>
-      <c r="AM2" s="15"/>
-      <c r="AN2" s="15"/>
-      <c r="AO2" s="15"/>
-      <c r="AP2" s="15"/>
-      <c r="AQ2" s="15"/>
-      <c r="AR2" s="15"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="13"/>
+      <c r="AA2" s="13"/>
+      <c r="AB2" s="13"/>
+      <c r="AC2" s="13"/>
+      <c r="AD2" s="13"/>
+      <c r="AE2" s="13"/>
+      <c r="AF2" s="13"/>
+      <c r="AG2" s="13"/>
+      <c r="AH2" s="13"/>
+      <c r="AI2" s="13"/>
+      <c r="AJ2" s="13"/>
+      <c r="AK2" s="13"/>
+      <c r="AL2" s="13"/>
+      <c r="AM2" s="13"/>
+      <c r="AN2" s="13"/>
+      <c r="AO2" s="13"/>
+      <c r="AP2" s="13"/>
+      <c r="AQ2" s="13"/>
+      <c r="AR2" s="13"/>
     </row>
     <row r="3" spans="1:44" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="15"/>
-      <c r="W3" s="15"/>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="15"/>
-      <c r="Z3" s="15"/>
-      <c r="AA3" s="15"/>
-      <c r="AB3" s="15"/>
-      <c r="AC3" s="15"/>
-      <c r="AD3" s="15"/>
-      <c r="AE3" s="15"/>
-      <c r="AF3" s="15"/>
-      <c r="AG3" s="15"/>
-      <c r="AH3" s="15"/>
-      <c r="AI3" s="15"/>
-      <c r="AJ3" s="15"/>
-      <c r="AK3" s="15"/>
-      <c r="AL3" s="15"/>
-      <c r="AM3" s="15"/>
-      <c r="AN3" s="15"/>
-      <c r="AO3" s="15"/>
-      <c r="AP3" s="15"/>
-      <c r="AQ3" s="15"/>
-      <c r="AR3" s="15"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="13"/>
+      <c r="X3" s="13"/>
+      <c r="Y3" s="13"/>
+      <c r="Z3" s="13"/>
+      <c r="AA3" s="13"/>
+      <c r="AB3" s="13"/>
+      <c r="AC3" s="13"/>
+      <c r="AD3" s="13"/>
+      <c r="AE3" s="13"/>
+      <c r="AF3" s="13"/>
+      <c r="AG3" s="13"/>
+      <c r="AH3" s="13"/>
+      <c r="AI3" s="13"/>
+      <c r="AJ3" s="13"/>
+      <c r="AK3" s="13"/>
+      <c r="AL3" s="13"/>
+      <c r="AM3" s="13"/>
+      <c r="AN3" s="13"/>
+      <c r="AO3" s="13"/>
+      <c r="AP3" s="13"/>
+      <c r="AQ3" s="13"/>
+      <c r="AR3" s="13"/>
     </row>
     <row r="4" spans="1:44" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="15"/>
-      <c r="W4" s="15"/>
-      <c r="X4" s="15"/>
-      <c r="Y4" s="15"/>
-      <c r="Z4" s="15"/>
-      <c r="AA4" s="15"/>
-      <c r="AB4" s="15"/>
-      <c r="AC4" s="15"/>
-      <c r="AD4" s="15"/>
-      <c r="AE4" s="15"/>
-      <c r="AF4" s="15"/>
-      <c r="AG4" s="15"/>
-      <c r="AH4" s="15"/>
-      <c r="AI4" s="15"/>
-      <c r="AJ4" s="15"/>
-      <c r="AK4" s="15"/>
-      <c r="AL4" s="15"/>
-      <c r="AM4" s="15"/>
-      <c r="AN4" s="15"/>
-      <c r="AO4" s="15"/>
-      <c r="AP4" s="15"/>
-      <c r="AQ4" s="15"/>
-      <c r="AR4" s="15"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="13"/>
+      <c r="Z4" s="13"/>
+      <c r="AA4" s="13"/>
+      <c r="AB4" s="13"/>
+      <c r="AC4" s="13"/>
+      <c r="AD4" s="13"/>
+      <c r="AE4" s="13"/>
+      <c r="AF4" s="13"/>
+      <c r="AG4" s="13"/>
+      <c r="AH4" s="13"/>
+      <c r="AI4" s="13"/>
+      <c r="AJ4" s="13"/>
+      <c r="AK4" s="13"/>
+      <c r="AL4" s="13"/>
+      <c r="AM4" s="13"/>
+      <c r="AN4" s="13"/>
+      <c r="AO4" s="13"/>
+      <c r="AP4" s="13"/>
+      <c r="AQ4" s="13"/>
+      <c r="AR4" s="13"/>
     </row>
     <row r="5" spans="1:44" ht="3.95" customHeight="1">
-      <c r="A5" s="14"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
-      <c r="V5" s="15"/>
-      <c r="W5" s="15"/>
-      <c r="X5" s="15"/>
-      <c r="Y5" s="15"/>
-      <c r="Z5" s="15"/>
-      <c r="AA5" s="15"/>
-      <c r="AB5" s="15"/>
-      <c r="AC5" s="15"/>
-      <c r="AD5" s="15"/>
-      <c r="AE5" s="15"/>
-      <c r="AF5" s="15"/>
-      <c r="AG5" s="15"/>
-      <c r="AH5" s="15"/>
-      <c r="AI5" s="15"/>
-      <c r="AJ5" s="15"/>
-      <c r="AK5" s="15"/>
-      <c r="AL5" s="15"/>
-      <c r="AM5" s="15"/>
-      <c r="AN5" s="15"/>
-      <c r="AO5" s="15"/>
-      <c r="AP5" s="15"/>
-      <c r="AQ5" s="15"/>
-      <c r="AR5" s="15"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="13"/>
+      <c r="Z5" s="13"/>
+      <c r="AA5" s="13"/>
+      <c r="AB5" s="13"/>
+      <c r="AC5" s="13"/>
+      <c r="AD5" s="13"/>
+      <c r="AE5" s="13"/>
+      <c r="AF5" s="13"/>
+      <c r="AG5" s="13"/>
+      <c r="AH5" s="13"/>
+      <c r="AI5" s="13"/>
+      <c r="AJ5" s="13"/>
+      <c r="AK5" s="13"/>
+      <c r="AL5" s="13"/>
+      <c r="AM5" s="13"/>
+      <c r="AN5" s="13"/>
+      <c r="AO5" s="13"/>
+      <c r="AP5" s="13"/>
+      <c r="AQ5" s="13"/>
+      <c r="AR5" s="13"/>
     </row>
     <row r="6" spans="1:44" ht="17.100000000000001" customHeight="1">
-      <c r="A6" s="18"/>
-      <c r="B6" s="12" t="s">
+      <c r="A6" s="17"/>
+      <c r="B6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="J6" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12" t="s">
+      <c r="K6" s="15"/>
+      <c r="L6" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12" t="s">
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="12" t="s">
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="AA6" s="12"/>
-      <c r="AB6" s="12"/>
-      <c r="AC6" s="12"/>
-      <c r="AD6" s="12"/>
-      <c r="AE6" s="12"/>
-      <c r="AF6" s="12"/>
-      <c r="AG6" s="12" t="s">
+      <c r="AA6" s="15"/>
+      <c r="AB6" s="15"/>
+      <c r="AC6" s="15"/>
+      <c r="AD6" s="15"/>
+      <c r="AE6" s="15"/>
+      <c r="AF6" s="15"/>
+      <c r="AG6" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="AH6" s="12"/>
-      <c r="AI6" s="12"/>
-      <c r="AJ6" s="12"/>
-      <c r="AK6" s="12"/>
-      <c r="AL6" s="12"/>
-      <c r="AM6" s="12"/>
-      <c r="AN6" s="12" t="s">
+      <c r="AH6" s="15"/>
+      <c r="AI6" s="15"/>
+      <c r="AJ6" s="15"/>
+      <c r="AK6" s="15"/>
+      <c r="AL6" s="15"/>
+      <c r="AM6" s="15"/>
+      <c r="AN6" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="AO6" s="12"/>
-      <c r="AP6" s="12"/>
-      <c r="AQ6" s="12"/>
-      <c r="AR6" s="12"/>
+      <c r="AO6" s="15"/>
+      <c r="AP6" s="15"/>
+      <c r="AQ6" s="15"/>
+      <c r="AR6" s="15"/>
     </row>
     <row r="7" spans="1:44" ht="17.100000000000001" customHeight="1">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
       <c r="J7" s="1">
         <v>3</v>
       </c>
@@ -5101,101 +5101,107 @@
       <c r="AR38" s="5"/>
     </row>
     <row r="39" spans="1:44" ht="3.95" customHeight="1">
-      <c r="A39" s="14"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="15"/>
-      <c r="L39" s="15"/>
-      <c r="M39" s="15"/>
-      <c r="N39" s="15"/>
-      <c r="O39" s="15"/>
-      <c r="P39" s="15"/>
-      <c r="Q39" s="15"/>
-      <c r="R39" s="15"/>
-      <c r="S39" s="15"/>
-      <c r="T39" s="15"/>
-      <c r="U39" s="15"/>
-      <c r="V39" s="15"/>
-      <c r="W39" s="15"/>
-      <c r="X39" s="15"/>
-      <c r="Y39" s="15"/>
-      <c r="Z39" s="15"/>
-      <c r="AA39" s="15"/>
-      <c r="AB39" s="15"/>
-      <c r="AC39" s="15"/>
-      <c r="AD39" s="15"/>
-      <c r="AE39" s="15"/>
-      <c r="AF39" s="15"/>
-      <c r="AG39" s="15"/>
-      <c r="AH39" s="15"/>
-      <c r="AI39" s="15"/>
-      <c r="AJ39" s="15"/>
-      <c r="AK39" s="15"/>
-      <c r="AL39" s="15"/>
-      <c r="AM39" s="15"/>
-      <c r="AN39" s="15"/>
-      <c r="AO39" s="15"/>
-      <c r="AP39" s="15"/>
-      <c r="AQ39" s="15"/>
-      <c r="AR39" s="15"/>
+      <c r="A39" s="12"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="13"/>
+      <c r="N39" s="13"/>
+      <c r="O39" s="13"/>
+      <c r="P39" s="13"/>
+      <c r="Q39" s="13"/>
+      <c r="R39" s="13"/>
+      <c r="S39" s="13"/>
+      <c r="T39" s="13"/>
+      <c r="U39" s="13"/>
+      <c r="V39" s="13"/>
+      <c r="W39" s="13"/>
+      <c r="X39" s="13"/>
+      <c r="Y39" s="13"/>
+      <c r="Z39" s="13"/>
+      <c r="AA39" s="13"/>
+      <c r="AB39" s="13"/>
+      <c r="AC39" s="13"/>
+      <c r="AD39" s="13"/>
+      <c r="AE39" s="13"/>
+      <c r="AF39" s="13"/>
+      <c r="AG39" s="13"/>
+      <c r="AH39" s="13"/>
+      <c r="AI39" s="13"/>
+      <c r="AJ39" s="13"/>
+      <c r="AK39" s="13"/>
+      <c r="AL39" s="13"/>
+      <c r="AM39" s="13"/>
+      <c r="AN39" s="13"/>
+      <c r="AO39" s="13"/>
+      <c r="AP39" s="13"/>
+      <c r="AQ39" s="13"/>
+      <c r="AR39" s="13"/>
     </row>
     <row r="40" spans="1:44" ht="18" customHeight="1">
-      <c r="A40" s="17" t="s">
+      <c r="A40" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="15"/>
-      <c r="K40" s="15"/>
-      <c r="L40" s="15"/>
-      <c r="M40" s="15"/>
-      <c r="N40" s="15"/>
-      <c r="O40" s="15"/>
-      <c r="P40" s="15"/>
-      <c r="Q40" s="15"/>
-      <c r="R40" s="15"/>
-      <c r="S40" s="15"/>
-      <c r="T40" s="15"/>
-      <c r="U40" s="15"/>
-      <c r="V40" s="15"/>
-      <c r="W40" s="15"/>
-      <c r="X40" s="15"/>
-      <c r="Y40" s="15"/>
-      <c r="Z40" s="15"/>
-      <c r="AA40" s="15"/>
-      <c r="AB40" s="15"/>
-      <c r="AC40" s="15"/>
-      <c r="AD40" s="15"/>
-      <c r="AE40" s="15"/>
-      <c r="AF40" s="15"/>
-      <c r="AG40" s="15"/>
-      <c r="AH40" s="15"/>
-      <c r="AI40" s="15"/>
-      <c r="AJ40" s="15"/>
-      <c r="AK40" s="15"/>
-      <c r="AL40" s="15"/>
-      <c r="AM40" s="15"/>
-      <c r="AN40" s="15"/>
-      <c r="AO40" s="15"/>
-      <c r="AP40" s="15"/>
-      <c r="AQ40" s="15"/>
-      <c r="AR40" s="15"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="13"/>
+      <c r="N40" s="13"/>
+      <c r="O40" s="13"/>
+      <c r="P40" s="13"/>
+      <c r="Q40" s="13"/>
+      <c r="R40" s="13"/>
+      <c r="S40" s="13"/>
+      <c r="T40" s="13"/>
+      <c r="U40" s="13"/>
+      <c r="V40" s="13"/>
+      <c r="W40" s="13"/>
+      <c r="X40" s="13"/>
+      <c r="Y40" s="13"/>
+      <c r="Z40" s="13"/>
+      <c r="AA40" s="13"/>
+      <c r="AB40" s="13"/>
+      <c r="AC40" s="13"/>
+      <c r="AD40" s="13"/>
+      <c r="AE40" s="13"/>
+      <c r="AF40" s="13"/>
+      <c r="AG40" s="13"/>
+      <c r="AH40" s="13"/>
+      <c r="AI40" s="13"/>
+      <c r="AJ40" s="13"/>
+      <c r="AK40" s="13"/>
+      <c r="AL40" s="13"/>
+      <c r="AM40" s="13"/>
+      <c r="AN40" s="13"/>
+      <c r="AO40" s="13"/>
+      <c r="AP40" s="13"/>
+      <c r="AQ40" s="13"/>
+      <c r="AR40" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="A1:AR1"/>
+    <mergeCell ref="A2:AR2"/>
+    <mergeCell ref="A3:AR3"/>
+    <mergeCell ref="A4:AR4"/>
+    <mergeCell ref="A5:AR5"/>
     <mergeCell ref="A39:AR39"/>
     <mergeCell ref="A40:AR40"/>
     <mergeCell ref="L6:R6"/>
@@ -5212,12 +5218,6 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="A1:AR1"/>
-    <mergeCell ref="A2:AR2"/>
-    <mergeCell ref="A3:AR3"/>
-    <mergeCell ref="A4:AR4"/>
-    <mergeCell ref="A5:AR5"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/캠핑장.xlsx
+++ b/캠핑장.xlsx
@@ -271,7 +271,7 @@
     <t>2018년 9월 2일</t>
   </si>
   <si>
-    <t>작성자 : 권석현 쿠헤헤헤</t>
+    <t>작성자 : 권석현 new</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -475,26 +475,26 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2788,7 +2788,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2817,325 +2817,325 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="3.95" customHeight="1">
-      <c r="A1" s="12"/>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="13"/>
-      <c r="Z1" s="13"/>
-      <c r="AA1" s="13"/>
-      <c r="AB1" s="13"/>
-      <c r="AC1" s="13"/>
-      <c r="AD1" s="13"/>
-      <c r="AE1" s="13"/>
-      <c r="AF1" s="13"/>
-      <c r="AG1" s="13"/>
-      <c r="AH1" s="13"/>
-      <c r="AI1" s="13"/>
-      <c r="AJ1" s="13"/>
-      <c r="AK1" s="13"/>
-      <c r="AL1" s="13"/>
-      <c r="AM1" s="13"/>
-      <c r="AN1" s="13"/>
-      <c r="AO1" s="13"/>
-      <c r="AP1" s="13"/>
-      <c r="AQ1" s="13"/>
-      <c r="AR1" s="13"/>
+      <c r="A1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="15"/>
+      <c r="AD1" s="15"/>
+      <c r="AE1" s="15"/>
+      <c r="AF1" s="15"/>
+      <c r="AG1" s="15"/>
+      <c r="AH1" s="15"/>
+      <c r="AI1" s="15"/>
+      <c r="AJ1" s="15"/>
+      <c r="AK1" s="15"/>
+      <c r="AL1" s="15"/>
+      <c r="AM1" s="15"/>
+      <c r="AN1" s="15"/>
+      <c r="AO1" s="15"/>
+      <c r="AP1" s="15"/>
+      <c r="AQ1" s="15"/>
+      <c r="AR1" s="15"/>
     </row>
     <row r="2" spans="1:44" ht="18" customHeight="1">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
-      <c r="X2" s="13"/>
-      <c r="Y2" s="13"/>
-      <c r="Z2" s="13"/>
-      <c r="AA2" s="13"/>
-      <c r="AB2" s="13"/>
-      <c r="AC2" s="13"/>
-      <c r="AD2" s="13"/>
-      <c r="AE2" s="13"/>
-      <c r="AF2" s="13"/>
-      <c r="AG2" s="13"/>
-      <c r="AH2" s="13"/>
-      <c r="AI2" s="13"/>
-      <c r="AJ2" s="13"/>
-      <c r="AK2" s="13"/>
-      <c r="AL2" s="13"/>
-      <c r="AM2" s="13"/>
-      <c r="AN2" s="13"/>
-      <c r="AO2" s="13"/>
-      <c r="AP2" s="13"/>
-      <c r="AQ2" s="13"/>
-      <c r="AR2" s="13"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
+      <c r="X2" s="15"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="15"/>
+      <c r="AA2" s="15"/>
+      <c r="AB2" s="15"/>
+      <c r="AC2" s="15"/>
+      <c r="AD2" s="15"/>
+      <c r="AE2" s="15"/>
+      <c r="AF2" s="15"/>
+      <c r="AG2" s="15"/>
+      <c r="AH2" s="15"/>
+      <c r="AI2" s="15"/>
+      <c r="AJ2" s="15"/>
+      <c r="AK2" s="15"/>
+      <c r="AL2" s="15"/>
+      <c r="AM2" s="15"/>
+      <c r="AN2" s="15"/>
+      <c r="AO2" s="15"/>
+      <c r="AP2" s="15"/>
+      <c r="AQ2" s="15"/>
+      <c r="AR2" s="15"/>
     </row>
     <row r="3" spans="1:44" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13"/>
-      <c r="V3" s="13"/>
-      <c r="W3" s="13"/>
-      <c r="X3" s="13"/>
-      <c r="Y3" s="13"/>
-      <c r="Z3" s="13"/>
-      <c r="AA3" s="13"/>
-      <c r="AB3" s="13"/>
-      <c r="AC3" s="13"/>
-      <c r="AD3" s="13"/>
-      <c r="AE3" s="13"/>
-      <c r="AF3" s="13"/>
-      <c r="AG3" s="13"/>
-      <c r="AH3" s="13"/>
-      <c r="AI3" s="13"/>
-      <c r="AJ3" s="13"/>
-      <c r="AK3" s="13"/>
-      <c r="AL3" s="13"/>
-      <c r="AM3" s="13"/>
-      <c r="AN3" s="13"/>
-      <c r="AO3" s="13"/>
-      <c r="AP3" s="13"/>
-      <c r="AQ3" s="13"/>
-      <c r="AR3" s="13"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="15"/>
+      <c r="X3" s="15"/>
+      <c r="Y3" s="15"/>
+      <c r="Z3" s="15"/>
+      <c r="AA3" s="15"/>
+      <c r="AB3" s="15"/>
+      <c r="AC3" s="15"/>
+      <c r="AD3" s="15"/>
+      <c r="AE3" s="15"/>
+      <c r="AF3" s="15"/>
+      <c r="AG3" s="15"/>
+      <c r="AH3" s="15"/>
+      <c r="AI3" s="15"/>
+      <c r="AJ3" s="15"/>
+      <c r="AK3" s="15"/>
+      <c r="AL3" s="15"/>
+      <c r="AM3" s="15"/>
+      <c r="AN3" s="15"/>
+      <c r="AO3" s="15"/>
+      <c r="AP3" s="15"/>
+      <c r="AQ3" s="15"/>
+      <c r="AR3" s="15"/>
     </row>
     <row r="4" spans="1:44" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="13"/>
-      <c r="Y4" s="13"/>
-      <c r="Z4" s="13"/>
-      <c r="AA4" s="13"/>
-      <c r="AB4" s="13"/>
-      <c r="AC4" s="13"/>
-      <c r="AD4" s="13"/>
-      <c r="AE4" s="13"/>
-      <c r="AF4" s="13"/>
-      <c r="AG4" s="13"/>
-      <c r="AH4" s="13"/>
-      <c r="AI4" s="13"/>
-      <c r="AJ4" s="13"/>
-      <c r="AK4" s="13"/>
-      <c r="AL4" s="13"/>
-      <c r="AM4" s="13"/>
-      <c r="AN4" s="13"/>
-      <c r="AO4" s="13"/>
-      <c r="AP4" s="13"/>
-      <c r="AQ4" s="13"/>
-      <c r="AR4" s="13"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="15"/>
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="15"/>
+      <c r="AA4" s="15"/>
+      <c r="AB4" s="15"/>
+      <c r="AC4" s="15"/>
+      <c r="AD4" s="15"/>
+      <c r="AE4" s="15"/>
+      <c r="AF4" s="15"/>
+      <c r="AG4" s="15"/>
+      <c r="AH4" s="15"/>
+      <c r="AI4" s="15"/>
+      <c r="AJ4" s="15"/>
+      <c r="AK4" s="15"/>
+      <c r="AL4" s="15"/>
+      <c r="AM4" s="15"/>
+      <c r="AN4" s="15"/>
+      <c r="AO4" s="15"/>
+      <c r="AP4" s="15"/>
+      <c r="AQ4" s="15"/>
+      <c r="AR4" s="15"/>
     </row>
     <row r="5" spans="1:44" ht="3.95" customHeight="1">
-      <c r="A5" s="12"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13"/>
-      <c r="W5" s="13"/>
-      <c r="X5" s="13"/>
-      <c r="Y5" s="13"/>
-      <c r="Z5" s="13"/>
-      <c r="AA5" s="13"/>
-      <c r="AB5" s="13"/>
-      <c r="AC5" s="13"/>
-      <c r="AD5" s="13"/>
-      <c r="AE5" s="13"/>
-      <c r="AF5" s="13"/>
-      <c r="AG5" s="13"/>
-      <c r="AH5" s="13"/>
-      <c r="AI5" s="13"/>
-      <c r="AJ5" s="13"/>
-      <c r="AK5" s="13"/>
-      <c r="AL5" s="13"/>
-      <c r="AM5" s="13"/>
-      <c r="AN5" s="13"/>
-      <c r="AO5" s="13"/>
-      <c r="AP5" s="13"/>
-      <c r="AQ5" s="13"/>
-      <c r="AR5" s="13"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="15"/>
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="15"/>
+      <c r="AA5" s="15"/>
+      <c r="AB5" s="15"/>
+      <c r="AC5" s="15"/>
+      <c r="AD5" s="15"/>
+      <c r="AE5" s="15"/>
+      <c r="AF5" s="15"/>
+      <c r="AG5" s="15"/>
+      <c r="AH5" s="15"/>
+      <c r="AI5" s="15"/>
+      <c r="AJ5" s="15"/>
+      <c r="AK5" s="15"/>
+      <c r="AL5" s="15"/>
+      <c r="AM5" s="15"/>
+      <c r="AN5" s="15"/>
+      <c r="AO5" s="15"/>
+      <c r="AP5" s="15"/>
+      <c r="AQ5" s="15"/>
+      <c r="AR5" s="15"/>
     </row>
     <row r="6" spans="1:44" ht="17.100000000000001" customHeight="1">
-      <c r="A6" s="17"/>
-      <c r="B6" s="15" t="s">
+      <c r="A6" s="18"/>
+      <c r="B6" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="I6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="J6" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15" t="s">
+      <c r="K6" s="12"/>
+      <c r="L6" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15" t="s">
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="T6" s="15"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="15"/>
-      <c r="W6" s="15"/>
-      <c r="X6" s="15"/>
-      <c r="Y6" s="15"/>
-      <c r="Z6" s="15" t="s">
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="AA6" s="15"/>
-      <c r="AB6" s="15"/>
-      <c r="AC6" s="15"/>
-      <c r="AD6" s="15"/>
-      <c r="AE6" s="15"/>
-      <c r="AF6" s="15"/>
-      <c r="AG6" s="15" t="s">
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="12"/>
+      <c r="AE6" s="12"/>
+      <c r="AF6" s="12"/>
+      <c r="AG6" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="AH6" s="15"/>
-      <c r="AI6" s="15"/>
-      <c r="AJ6" s="15"/>
-      <c r="AK6" s="15"/>
-      <c r="AL6" s="15"/>
-      <c r="AM6" s="15"/>
-      <c r="AN6" s="15" t="s">
+      <c r="AH6" s="12"/>
+      <c r="AI6" s="12"/>
+      <c r="AJ6" s="12"/>
+      <c r="AK6" s="12"/>
+      <c r="AL6" s="12"/>
+      <c r="AM6" s="12"/>
+      <c r="AN6" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="AO6" s="15"/>
-      <c r="AP6" s="15"/>
-      <c r="AQ6" s="15"/>
-      <c r="AR6" s="15"/>
+      <c r="AO6" s="12"/>
+      <c r="AP6" s="12"/>
+      <c r="AQ6" s="12"/>
+      <c r="AR6" s="12"/>
     </row>
     <row r="7" spans="1:44" ht="17.100000000000001" customHeight="1">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
       <c r="J7" s="1">
         <v>3</v>
       </c>
@@ -5101,107 +5101,101 @@
       <c r="AR38" s="5"/>
     </row>
     <row r="39" spans="1:44" ht="3.95" customHeight="1">
-      <c r="A39" s="12"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="13"/>
-      <c r="L39" s="13"/>
-      <c r="M39" s="13"/>
-      <c r="N39" s="13"/>
-      <c r="O39" s="13"/>
-      <c r="P39" s="13"/>
-      <c r="Q39" s="13"/>
-      <c r="R39" s="13"/>
-      <c r="S39" s="13"/>
-      <c r="T39" s="13"/>
-      <c r="U39" s="13"/>
-      <c r="V39" s="13"/>
-      <c r="W39" s="13"/>
-      <c r="X39" s="13"/>
-      <c r="Y39" s="13"/>
-      <c r="Z39" s="13"/>
-      <c r="AA39" s="13"/>
-      <c r="AB39" s="13"/>
-      <c r="AC39" s="13"/>
-      <c r="AD39" s="13"/>
-      <c r="AE39" s="13"/>
-      <c r="AF39" s="13"/>
-      <c r="AG39" s="13"/>
-      <c r="AH39" s="13"/>
-      <c r="AI39" s="13"/>
-      <c r="AJ39" s="13"/>
-      <c r="AK39" s="13"/>
-      <c r="AL39" s="13"/>
-      <c r="AM39" s="13"/>
-      <c r="AN39" s="13"/>
-      <c r="AO39" s="13"/>
-      <c r="AP39" s="13"/>
-      <c r="AQ39" s="13"/>
-      <c r="AR39" s="13"/>
+      <c r="A39" s="14"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="15"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="15"/>
+      <c r="O39" s="15"/>
+      <c r="P39" s="15"/>
+      <c r="Q39" s="15"/>
+      <c r="R39" s="15"/>
+      <c r="S39" s="15"/>
+      <c r="T39" s="15"/>
+      <c r="U39" s="15"/>
+      <c r="V39" s="15"/>
+      <c r="W39" s="15"/>
+      <c r="X39" s="15"/>
+      <c r="Y39" s="15"/>
+      <c r="Z39" s="15"/>
+      <c r="AA39" s="15"/>
+      <c r="AB39" s="15"/>
+      <c r="AC39" s="15"/>
+      <c r="AD39" s="15"/>
+      <c r="AE39" s="15"/>
+      <c r="AF39" s="15"/>
+      <c r="AG39" s="15"/>
+      <c r="AH39" s="15"/>
+      <c r="AI39" s="15"/>
+      <c r="AJ39" s="15"/>
+      <c r="AK39" s="15"/>
+      <c r="AL39" s="15"/>
+      <c r="AM39" s="15"/>
+      <c r="AN39" s="15"/>
+      <c r="AO39" s="15"/>
+      <c r="AP39" s="15"/>
+      <c r="AQ39" s="15"/>
+      <c r="AR39" s="15"/>
     </row>
     <row r="40" spans="1:44" ht="18" customHeight="1">
-      <c r="A40" s="14" t="s">
+      <c r="A40" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="13"/>
-      <c r="L40" s="13"/>
-      <c r="M40" s="13"/>
-      <c r="N40" s="13"/>
-      <c r="O40" s="13"/>
-      <c r="P40" s="13"/>
-      <c r="Q40" s="13"/>
-      <c r="R40" s="13"/>
-      <c r="S40" s="13"/>
-      <c r="T40" s="13"/>
-      <c r="U40" s="13"/>
-      <c r="V40" s="13"/>
-      <c r="W40" s="13"/>
-      <c r="X40" s="13"/>
-      <c r="Y40" s="13"/>
-      <c r="Z40" s="13"/>
-      <c r="AA40" s="13"/>
-      <c r="AB40" s="13"/>
-      <c r="AC40" s="13"/>
-      <c r="AD40" s="13"/>
-      <c r="AE40" s="13"/>
-      <c r="AF40" s="13"/>
-      <c r="AG40" s="13"/>
-      <c r="AH40" s="13"/>
-      <c r="AI40" s="13"/>
-      <c r="AJ40" s="13"/>
-      <c r="AK40" s="13"/>
-      <c r="AL40" s="13"/>
-      <c r="AM40" s="13"/>
-      <c r="AN40" s="13"/>
-      <c r="AO40" s="13"/>
-      <c r="AP40" s="13"/>
-      <c r="AQ40" s="13"/>
-      <c r="AR40" s="13"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="15"/>
+      <c r="L40" s="15"/>
+      <c r="M40" s="15"/>
+      <c r="N40" s="15"/>
+      <c r="O40" s="15"/>
+      <c r="P40" s="15"/>
+      <c r="Q40" s="15"/>
+      <c r="R40" s="15"/>
+      <c r="S40" s="15"/>
+      <c r="T40" s="15"/>
+      <c r="U40" s="15"/>
+      <c r="V40" s="15"/>
+      <c r="W40" s="15"/>
+      <c r="X40" s="15"/>
+      <c r="Y40" s="15"/>
+      <c r="Z40" s="15"/>
+      <c r="AA40" s="15"/>
+      <c r="AB40" s="15"/>
+      <c r="AC40" s="15"/>
+      <c r="AD40" s="15"/>
+      <c r="AE40" s="15"/>
+      <c r="AF40" s="15"/>
+      <c r="AG40" s="15"/>
+      <c r="AH40" s="15"/>
+      <c r="AI40" s="15"/>
+      <c r="AJ40" s="15"/>
+      <c r="AK40" s="15"/>
+      <c r="AL40" s="15"/>
+      <c r="AM40" s="15"/>
+      <c r="AN40" s="15"/>
+      <c r="AO40" s="15"/>
+      <c r="AP40" s="15"/>
+      <c r="AQ40" s="15"/>
+      <c r="AR40" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="A1:AR1"/>
-    <mergeCell ref="A2:AR2"/>
-    <mergeCell ref="A3:AR3"/>
-    <mergeCell ref="A4:AR4"/>
-    <mergeCell ref="A5:AR5"/>
     <mergeCell ref="A39:AR39"/>
     <mergeCell ref="A40:AR40"/>
     <mergeCell ref="L6:R6"/>
@@ -5218,6 +5212,12 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="A1:AR1"/>
+    <mergeCell ref="A2:AR2"/>
+    <mergeCell ref="A3:AR3"/>
+    <mergeCell ref="A4:AR4"/>
+    <mergeCell ref="A5:AR5"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/캠핑장.xlsx
+++ b/캠핑장.xlsx
@@ -271,7 +271,7 @@
     <t>2018년 9월 2일</t>
   </si>
   <si>
-    <t>작성자 : 권석현</t>
+    <t>작성자 : 권석현++</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -475,26 +475,26 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2788,7 +2788,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2817,325 +2817,325 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="3.95" customHeight="1">
-      <c r="A1" s="14"/>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
-      <c r="X1" s="15"/>
-      <c r="Y1" s="15"/>
-      <c r="Z1" s="15"/>
-      <c r="AA1" s="15"/>
-      <c r="AB1" s="15"/>
-      <c r="AC1" s="15"/>
-      <c r="AD1" s="15"/>
-      <c r="AE1" s="15"/>
-      <c r="AF1" s="15"/>
-      <c r="AG1" s="15"/>
-      <c r="AH1" s="15"/>
-      <c r="AI1" s="15"/>
-      <c r="AJ1" s="15"/>
-      <c r="AK1" s="15"/>
-      <c r="AL1" s="15"/>
-      <c r="AM1" s="15"/>
-      <c r="AN1" s="15"/>
-      <c r="AO1" s="15"/>
-      <c r="AP1" s="15"/>
-      <c r="AQ1" s="15"/>
-      <c r="AR1" s="15"/>
+      <c r="A1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
+      <c r="AA1" s="13"/>
+      <c r="AB1" s="13"/>
+      <c r="AC1" s="13"/>
+      <c r="AD1" s="13"/>
+      <c r="AE1" s="13"/>
+      <c r="AF1" s="13"/>
+      <c r="AG1" s="13"/>
+      <c r="AH1" s="13"/>
+      <c r="AI1" s="13"/>
+      <c r="AJ1" s="13"/>
+      <c r="AK1" s="13"/>
+      <c r="AL1" s="13"/>
+      <c r="AM1" s="13"/>
+      <c r="AN1" s="13"/>
+      <c r="AO1" s="13"/>
+      <c r="AP1" s="13"/>
+      <c r="AQ1" s="13"/>
+      <c r="AR1" s="13"/>
     </row>
     <row r="2" spans="1:44" ht="18" customHeight="1">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="15"/>
-      <c r="X2" s="15"/>
-      <c r="Y2" s="15"/>
-      <c r="Z2" s="15"/>
-      <c r="AA2" s="15"/>
-      <c r="AB2" s="15"/>
-      <c r="AC2" s="15"/>
-      <c r="AD2" s="15"/>
-      <c r="AE2" s="15"/>
-      <c r="AF2" s="15"/>
-      <c r="AG2" s="15"/>
-      <c r="AH2" s="15"/>
-      <c r="AI2" s="15"/>
-      <c r="AJ2" s="15"/>
-      <c r="AK2" s="15"/>
-      <c r="AL2" s="15"/>
-      <c r="AM2" s="15"/>
-      <c r="AN2" s="15"/>
-      <c r="AO2" s="15"/>
-      <c r="AP2" s="15"/>
-      <c r="AQ2" s="15"/>
-      <c r="AR2" s="15"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="13"/>
+      <c r="AA2" s="13"/>
+      <c r="AB2" s="13"/>
+      <c r="AC2" s="13"/>
+      <c r="AD2" s="13"/>
+      <c r="AE2" s="13"/>
+      <c r="AF2" s="13"/>
+      <c r="AG2" s="13"/>
+      <c r="AH2" s="13"/>
+      <c r="AI2" s="13"/>
+      <c r="AJ2" s="13"/>
+      <c r="AK2" s="13"/>
+      <c r="AL2" s="13"/>
+      <c r="AM2" s="13"/>
+      <c r="AN2" s="13"/>
+      <c r="AO2" s="13"/>
+      <c r="AP2" s="13"/>
+      <c r="AQ2" s="13"/>
+      <c r="AR2" s="13"/>
     </row>
     <row r="3" spans="1:44" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="15"/>
-      <c r="W3" s="15"/>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="15"/>
-      <c r="Z3" s="15"/>
-      <c r="AA3" s="15"/>
-      <c r="AB3" s="15"/>
-      <c r="AC3" s="15"/>
-      <c r="AD3" s="15"/>
-      <c r="AE3" s="15"/>
-      <c r="AF3" s="15"/>
-      <c r="AG3" s="15"/>
-      <c r="AH3" s="15"/>
-      <c r="AI3" s="15"/>
-      <c r="AJ3" s="15"/>
-      <c r="AK3" s="15"/>
-      <c r="AL3" s="15"/>
-      <c r="AM3" s="15"/>
-      <c r="AN3" s="15"/>
-      <c r="AO3" s="15"/>
-      <c r="AP3" s="15"/>
-      <c r="AQ3" s="15"/>
-      <c r="AR3" s="15"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="13"/>
+      <c r="X3" s="13"/>
+      <c r="Y3" s="13"/>
+      <c r="Z3" s="13"/>
+      <c r="AA3" s="13"/>
+      <c r="AB3" s="13"/>
+      <c r="AC3" s="13"/>
+      <c r="AD3" s="13"/>
+      <c r="AE3" s="13"/>
+      <c r="AF3" s="13"/>
+      <c r="AG3" s="13"/>
+      <c r="AH3" s="13"/>
+      <c r="AI3" s="13"/>
+      <c r="AJ3" s="13"/>
+      <c r="AK3" s="13"/>
+      <c r="AL3" s="13"/>
+      <c r="AM3" s="13"/>
+      <c r="AN3" s="13"/>
+      <c r="AO3" s="13"/>
+      <c r="AP3" s="13"/>
+      <c r="AQ3" s="13"/>
+      <c r="AR3" s="13"/>
     </row>
     <row r="4" spans="1:44" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="15"/>
-      <c r="W4" s="15"/>
-      <c r="X4" s="15"/>
-      <c r="Y4" s="15"/>
-      <c r="Z4" s="15"/>
-      <c r="AA4" s="15"/>
-      <c r="AB4" s="15"/>
-      <c r="AC4" s="15"/>
-      <c r="AD4" s="15"/>
-      <c r="AE4" s="15"/>
-      <c r="AF4" s="15"/>
-      <c r="AG4" s="15"/>
-      <c r="AH4" s="15"/>
-      <c r="AI4" s="15"/>
-      <c r="AJ4" s="15"/>
-      <c r="AK4" s="15"/>
-      <c r="AL4" s="15"/>
-      <c r="AM4" s="15"/>
-      <c r="AN4" s="15"/>
-      <c r="AO4" s="15"/>
-      <c r="AP4" s="15"/>
-      <c r="AQ4" s="15"/>
-      <c r="AR4" s="15"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="13"/>
+      <c r="Z4" s="13"/>
+      <c r="AA4" s="13"/>
+      <c r="AB4" s="13"/>
+      <c r="AC4" s="13"/>
+      <c r="AD4" s="13"/>
+      <c r="AE4" s="13"/>
+      <c r="AF4" s="13"/>
+      <c r="AG4" s="13"/>
+      <c r="AH4" s="13"/>
+      <c r="AI4" s="13"/>
+      <c r="AJ4" s="13"/>
+      <c r="AK4" s="13"/>
+      <c r="AL4" s="13"/>
+      <c r="AM4" s="13"/>
+      <c r="AN4" s="13"/>
+      <c r="AO4" s="13"/>
+      <c r="AP4" s="13"/>
+      <c r="AQ4" s="13"/>
+      <c r="AR4" s="13"/>
     </row>
     <row r="5" spans="1:44" ht="3.95" customHeight="1">
-      <c r="A5" s="14"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
-      <c r="V5" s="15"/>
-      <c r="W5" s="15"/>
-      <c r="X5" s="15"/>
-      <c r="Y5" s="15"/>
-      <c r="Z5" s="15"/>
-      <c r="AA5" s="15"/>
-      <c r="AB5" s="15"/>
-      <c r="AC5" s="15"/>
-      <c r="AD5" s="15"/>
-      <c r="AE5" s="15"/>
-      <c r="AF5" s="15"/>
-      <c r="AG5" s="15"/>
-      <c r="AH5" s="15"/>
-      <c r="AI5" s="15"/>
-      <c r="AJ5" s="15"/>
-      <c r="AK5" s="15"/>
-      <c r="AL5" s="15"/>
-      <c r="AM5" s="15"/>
-      <c r="AN5" s="15"/>
-      <c r="AO5" s="15"/>
-      <c r="AP5" s="15"/>
-      <c r="AQ5" s="15"/>
-      <c r="AR5" s="15"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="13"/>
+      <c r="Z5" s="13"/>
+      <c r="AA5" s="13"/>
+      <c r="AB5" s="13"/>
+      <c r="AC5" s="13"/>
+      <c r="AD5" s="13"/>
+      <c r="AE5" s="13"/>
+      <c r="AF5" s="13"/>
+      <c r="AG5" s="13"/>
+      <c r="AH5" s="13"/>
+      <c r="AI5" s="13"/>
+      <c r="AJ5" s="13"/>
+      <c r="AK5" s="13"/>
+      <c r="AL5" s="13"/>
+      <c r="AM5" s="13"/>
+      <c r="AN5" s="13"/>
+      <c r="AO5" s="13"/>
+      <c r="AP5" s="13"/>
+      <c r="AQ5" s="13"/>
+      <c r="AR5" s="13"/>
     </row>
     <row r="6" spans="1:44" ht="17.100000000000001" customHeight="1">
-      <c r="A6" s="18"/>
-      <c r="B6" s="12" t="s">
+      <c r="A6" s="17"/>
+      <c r="B6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="J6" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12" t="s">
+      <c r="K6" s="15"/>
+      <c r="L6" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12" t="s">
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="12" t="s">
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="AA6" s="12"/>
-      <c r="AB6" s="12"/>
-      <c r="AC6" s="12"/>
-      <c r="AD6" s="12"/>
-      <c r="AE6" s="12"/>
-      <c r="AF6" s="12"/>
-      <c r="AG6" s="12" t="s">
+      <c r="AA6" s="15"/>
+      <c r="AB6" s="15"/>
+      <c r="AC6" s="15"/>
+      <c r="AD6" s="15"/>
+      <c r="AE6" s="15"/>
+      <c r="AF6" s="15"/>
+      <c r="AG6" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="AH6" s="12"/>
-      <c r="AI6" s="12"/>
-      <c r="AJ6" s="12"/>
-      <c r="AK6" s="12"/>
-      <c r="AL6" s="12"/>
-      <c r="AM6" s="12"/>
-      <c r="AN6" s="12" t="s">
+      <c r="AH6" s="15"/>
+      <c r="AI6" s="15"/>
+      <c r="AJ6" s="15"/>
+      <c r="AK6" s="15"/>
+      <c r="AL6" s="15"/>
+      <c r="AM6" s="15"/>
+      <c r="AN6" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="AO6" s="12"/>
-      <c r="AP6" s="12"/>
-      <c r="AQ6" s="12"/>
-      <c r="AR6" s="12"/>
+      <c r="AO6" s="15"/>
+      <c r="AP6" s="15"/>
+      <c r="AQ6" s="15"/>
+      <c r="AR6" s="15"/>
     </row>
     <row r="7" spans="1:44" ht="17.100000000000001" customHeight="1">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
       <c r="J7" s="1">
         <v>3</v>
       </c>
@@ -5101,101 +5101,107 @@
       <c r="AR38" s="5"/>
     </row>
     <row r="39" spans="1:44" ht="3.95" customHeight="1">
-      <c r="A39" s="14"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="15"/>
-      <c r="L39" s="15"/>
-      <c r="M39" s="15"/>
-      <c r="N39" s="15"/>
-      <c r="O39" s="15"/>
-      <c r="P39" s="15"/>
-      <c r="Q39" s="15"/>
-      <c r="R39" s="15"/>
-      <c r="S39" s="15"/>
-      <c r="T39" s="15"/>
-      <c r="U39" s="15"/>
-      <c r="V39" s="15"/>
-      <c r="W39" s="15"/>
-      <c r="X39" s="15"/>
-      <c r="Y39" s="15"/>
-      <c r="Z39" s="15"/>
-      <c r="AA39" s="15"/>
-      <c r="AB39" s="15"/>
-      <c r="AC39" s="15"/>
-      <c r="AD39" s="15"/>
-      <c r="AE39" s="15"/>
-      <c r="AF39" s="15"/>
-      <c r="AG39" s="15"/>
-      <c r="AH39" s="15"/>
-      <c r="AI39" s="15"/>
-      <c r="AJ39" s="15"/>
-      <c r="AK39" s="15"/>
-      <c r="AL39" s="15"/>
-      <c r="AM39" s="15"/>
-      <c r="AN39" s="15"/>
-      <c r="AO39" s="15"/>
-      <c r="AP39" s="15"/>
-      <c r="AQ39" s="15"/>
-      <c r="AR39" s="15"/>
+      <c r="A39" s="12"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="13"/>
+      <c r="N39" s="13"/>
+      <c r="O39" s="13"/>
+      <c r="P39" s="13"/>
+      <c r="Q39" s="13"/>
+      <c r="R39" s="13"/>
+      <c r="S39" s="13"/>
+      <c r="T39" s="13"/>
+      <c r="U39" s="13"/>
+      <c r="V39" s="13"/>
+      <c r="W39" s="13"/>
+      <c r="X39" s="13"/>
+      <c r="Y39" s="13"/>
+      <c r="Z39" s="13"/>
+      <c r="AA39" s="13"/>
+      <c r="AB39" s="13"/>
+      <c r="AC39" s="13"/>
+      <c r="AD39" s="13"/>
+      <c r="AE39" s="13"/>
+      <c r="AF39" s="13"/>
+      <c r="AG39" s="13"/>
+      <c r="AH39" s="13"/>
+      <c r="AI39" s="13"/>
+      <c r="AJ39" s="13"/>
+      <c r="AK39" s="13"/>
+      <c r="AL39" s="13"/>
+      <c r="AM39" s="13"/>
+      <c r="AN39" s="13"/>
+      <c r="AO39" s="13"/>
+      <c r="AP39" s="13"/>
+      <c r="AQ39" s="13"/>
+      <c r="AR39" s="13"/>
     </row>
     <row r="40" spans="1:44" ht="18" customHeight="1">
-      <c r="A40" s="17" t="s">
+      <c r="A40" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="15"/>
-      <c r="K40" s="15"/>
-      <c r="L40" s="15"/>
-      <c r="M40" s="15"/>
-      <c r="N40" s="15"/>
-      <c r="O40" s="15"/>
-      <c r="P40" s="15"/>
-      <c r="Q40" s="15"/>
-      <c r="R40" s="15"/>
-      <c r="S40" s="15"/>
-      <c r="T40" s="15"/>
-      <c r="U40" s="15"/>
-      <c r="V40" s="15"/>
-      <c r="W40" s="15"/>
-      <c r="X40" s="15"/>
-      <c r="Y40" s="15"/>
-      <c r="Z40" s="15"/>
-      <c r="AA40" s="15"/>
-      <c r="AB40" s="15"/>
-      <c r="AC40" s="15"/>
-      <c r="AD40" s="15"/>
-      <c r="AE40" s="15"/>
-      <c r="AF40" s="15"/>
-      <c r="AG40" s="15"/>
-      <c r="AH40" s="15"/>
-      <c r="AI40" s="15"/>
-      <c r="AJ40" s="15"/>
-      <c r="AK40" s="15"/>
-      <c r="AL40" s="15"/>
-      <c r="AM40" s="15"/>
-      <c r="AN40" s="15"/>
-      <c r="AO40" s="15"/>
-      <c r="AP40" s="15"/>
-      <c r="AQ40" s="15"/>
-      <c r="AR40" s="15"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="13"/>
+      <c r="N40" s="13"/>
+      <c r="O40" s="13"/>
+      <c r="P40" s="13"/>
+      <c r="Q40" s="13"/>
+      <c r="R40" s="13"/>
+      <c r="S40" s="13"/>
+      <c r="T40" s="13"/>
+      <c r="U40" s="13"/>
+      <c r="V40" s="13"/>
+      <c r="W40" s="13"/>
+      <c r="X40" s="13"/>
+      <c r="Y40" s="13"/>
+      <c r="Z40" s="13"/>
+      <c r="AA40" s="13"/>
+      <c r="AB40" s="13"/>
+      <c r="AC40" s="13"/>
+      <c r="AD40" s="13"/>
+      <c r="AE40" s="13"/>
+      <c r="AF40" s="13"/>
+      <c r="AG40" s="13"/>
+      <c r="AH40" s="13"/>
+      <c r="AI40" s="13"/>
+      <c r="AJ40" s="13"/>
+      <c r="AK40" s="13"/>
+      <c r="AL40" s="13"/>
+      <c r="AM40" s="13"/>
+      <c r="AN40" s="13"/>
+      <c r="AO40" s="13"/>
+      <c r="AP40" s="13"/>
+      <c r="AQ40" s="13"/>
+      <c r="AR40" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="A1:AR1"/>
+    <mergeCell ref="A2:AR2"/>
+    <mergeCell ref="A3:AR3"/>
+    <mergeCell ref="A4:AR4"/>
+    <mergeCell ref="A5:AR5"/>
     <mergeCell ref="A39:AR39"/>
     <mergeCell ref="A40:AR40"/>
     <mergeCell ref="L6:R6"/>
@@ -5212,12 +5218,6 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="A1:AR1"/>
-    <mergeCell ref="A2:AR2"/>
-    <mergeCell ref="A3:AR3"/>
-    <mergeCell ref="A4:AR4"/>
-    <mergeCell ref="A5:AR5"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/캠핑장.xlsx
+++ b/캠핑장.xlsx
@@ -271,7 +271,7 @@
     <t>2018년 9월 2일</t>
   </si>
   <si>
-    <t>작성자 : 권석현++</t>
+    <t>작성자 : 권석현</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -475,26 +475,26 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2788,7 +2788,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2817,325 +2817,325 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="3.95" customHeight="1">
-      <c r="A1" s="12"/>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="13"/>
-      <c r="Z1" s="13"/>
-      <c r="AA1" s="13"/>
-      <c r="AB1" s="13"/>
-      <c r="AC1" s="13"/>
-      <c r="AD1" s="13"/>
-      <c r="AE1" s="13"/>
-      <c r="AF1" s="13"/>
-      <c r="AG1" s="13"/>
-      <c r="AH1" s="13"/>
-      <c r="AI1" s="13"/>
-      <c r="AJ1" s="13"/>
-      <c r="AK1" s="13"/>
-      <c r="AL1" s="13"/>
-      <c r="AM1" s="13"/>
-      <c r="AN1" s="13"/>
-      <c r="AO1" s="13"/>
-      <c r="AP1" s="13"/>
-      <c r="AQ1" s="13"/>
-      <c r="AR1" s="13"/>
+      <c r="A1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="15"/>
+      <c r="AD1" s="15"/>
+      <c r="AE1" s="15"/>
+      <c r="AF1" s="15"/>
+      <c r="AG1" s="15"/>
+      <c r="AH1" s="15"/>
+      <c r="AI1" s="15"/>
+      <c r="AJ1" s="15"/>
+      <c r="AK1" s="15"/>
+      <c r="AL1" s="15"/>
+      <c r="AM1" s="15"/>
+      <c r="AN1" s="15"/>
+      <c r="AO1" s="15"/>
+      <c r="AP1" s="15"/>
+      <c r="AQ1" s="15"/>
+      <c r="AR1" s="15"/>
     </row>
     <row r="2" spans="1:44" ht="18" customHeight="1">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
-      <c r="X2" s="13"/>
-      <c r="Y2" s="13"/>
-      <c r="Z2" s="13"/>
-      <c r="AA2" s="13"/>
-      <c r="AB2" s="13"/>
-      <c r="AC2" s="13"/>
-      <c r="AD2" s="13"/>
-      <c r="AE2" s="13"/>
-      <c r="AF2" s="13"/>
-      <c r="AG2" s="13"/>
-      <c r="AH2" s="13"/>
-      <c r="AI2" s="13"/>
-      <c r="AJ2" s="13"/>
-      <c r="AK2" s="13"/>
-      <c r="AL2" s="13"/>
-      <c r="AM2" s="13"/>
-      <c r="AN2" s="13"/>
-      <c r="AO2" s="13"/>
-      <c r="AP2" s="13"/>
-      <c r="AQ2" s="13"/>
-      <c r="AR2" s="13"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
+      <c r="X2" s="15"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="15"/>
+      <c r="AA2" s="15"/>
+      <c r="AB2" s="15"/>
+      <c r="AC2" s="15"/>
+      <c r="AD2" s="15"/>
+      <c r="AE2" s="15"/>
+      <c r="AF2" s="15"/>
+      <c r="AG2" s="15"/>
+      <c r="AH2" s="15"/>
+      <c r="AI2" s="15"/>
+      <c r="AJ2" s="15"/>
+      <c r="AK2" s="15"/>
+      <c r="AL2" s="15"/>
+      <c r="AM2" s="15"/>
+      <c r="AN2" s="15"/>
+      <c r="AO2" s="15"/>
+      <c r="AP2" s="15"/>
+      <c r="AQ2" s="15"/>
+      <c r="AR2" s="15"/>
     </row>
     <row r="3" spans="1:44" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13"/>
-      <c r="V3" s="13"/>
-      <c r="W3" s="13"/>
-      <c r="X3" s="13"/>
-      <c r="Y3" s="13"/>
-      <c r="Z3" s="13"/>
-      <c r="AA3" s="13"/>
-      <c r="AB3" s="13"/>
-      <c r="AC3" s="13"/>
-      <c r="AD3" s="13"/>
-      <c r="AE3" s="13"/>
-      <c r="AF3" s="13"/>
-      <c r="AG3" s="13"/>
-      <c r="AH3" s="13"/>
-      <c r="AI3" s="13"/>
-      <c r="AJ3" s="13"/>
-      <c r="AK3" s="13"/>
-      <c r="AL3" s="13"/>
-      <c r="AM3" s="13"/>
-      <c r="AN3" s="13"/>
-      <c r="AO3" s="13"/>
-      <c r="AP3" s="13"/>
-      <c r="AQ3" s="13"/>
-      <c r="AR3" s="13"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="15"/>
+      <c r="X3" s="15"/>
+      <c r="Y3" s="15"/>
+      <c r="Z3" s="15"/>
+      <c r="AA3" s="15"/>
+      <c r="AB3" s="15"/>
+      <c r="AC3" s="15"/>
+      <c r="AD3" s="15"/>
+      <c r="AE3" s="15"/>
+      <c r="AF3" s="15"/>
+      <c r="AG3" s="15"/>
+      <c r="AH3" s="15"/>
+      <c r="AI3" s="15"/>
+      <c r="AJ3" s="15"/>
+      <c r="AK3" s="15"/>
+      <c r="AL3" s="15"/>
+      <c r="AM3" s="15"/>
+      <c r="AN3" s="15"/>
+      <c r="AO3" s="15"/>
+      <c r="AP3" s="15"/>
+      <c r="AQ3" s="15"/>
+      <c r="AR3" s="15"/>
     </row>
     <row r="4" spans="1:44" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="13"/>
-      <c r="Y4" s="13"/>
-      <c r="Z4" s="13"/>
-      <c r="AA4" s="13"/>
-      <c r="AB4" s="13"/>
-      <c r="AC4" s="13"/>
-      <c r="AD4" s="13"/>
-      <c r="AE4" s="13"/>
-      <c r="AF4" s="13"/>
-      <c r="AG4" s="13"/>
-      <c r="AH4" s="13"/>
-      <c r="AI4" s="13"/>
-      <c r="AJ4" s="13"/>
-      <c r="AK4" s="13"/>
-      <c r="AL4" s="13"/>
-      <c r="AM4" s="13"/>
-      <c r="AN4" s="13"/>
-      <c r="AO4" s="13"/>
-      <c r="AP4" s="13"/>
-      <c r="AQ4" s="13"/>
-      <c r="AR4" s="13"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="15"/>
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="15"/>
+      <c r="AA4" s="15"/>
+      <c r="AB4" s="15"/>
+      <c r="AC4" s="15"/>
+      <c r="AD4" s="15"/>
+      <c r="AE4" s="15"/>
+      <c r="AF4" s="15"/>
+      <c r="AG4" s="15"/>
+      <c r="AH4" s="15"/>
+      <c r="AI4" s="15"/>
+      <c r="AJ4" s="15"/>
+      <c r="AK4" s="15"/>
+      <c r="AL4" s="15"/>
+      <c r="AM4" s="15"/>
+      <c r="AN4" s="15"/>
+      <c r="AO4" s="15"/>
+      <c r="AP4" s="15"/>
+      <c r="AQ4" s="15"/>
+      <c r="AR4" s="15"/>
     </row>
     <row r="5" spans="1:44" ht="3.95" customHeight="1">
-      <c r="A5" s="12"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13"/>
-      <c r="W5" s="13"/>
-      <c r="X5" s="13"/>
-      <c r="Y5" s="13"/>
-      <c r="Z5" s="13"/>
-      <c r="AA5" s="13"/>
-      <c r="AB5" s="13"/>
-      <c r="AC5" s="13"/>
-      <c r="AD5" s="13"/>
-      <c r="AE5" s="13"/>
-      <c r="AF5" s="13"/>
-      <c r="AG5" s="13"/>
-      <c r="AH5" s="13"/>
-      <c r="AI5" s="13"/>
-      <c r="AJ5" s="13"/>
-      <c r="AK5" s="13"/>
-      <c r="AL5" s="13"/>
-      <c r="AM5" s="13"/>
-      <c r="AN5" s="13"/>
-      <c r="AO5" s="13"/>
-      <c r="AP5" s="13"/>
-      <c r="AQ5" s="13"/>
-      <c r="AR5" s="13"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="15"/>
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="15"/>
+      <c r="AA5" s="15"/>
+      <c r="AB5" s="15"/>
+      <c r="AC5" s="15"/>
+      <c r="AD5" s="15"/>
+      <c r="AE5" s="15"/>
+      <c r="AF5" s="15"/>
+      <c r="AG5" s="15"/>
+      <c r="AH5" s="15"/>
+      <c r="AI5" s="15"/>
+      <c r="AJ5" s="15"/>
+      <c r="AK5" s="15"/>
+      <c r="AL5" s="15"/>
+      <c r="AM5" s="15"/>
+      <c r="AN5" s="15"/>
+      <c r="AO5" s="15"/>
+      <c r="AP5" s="15"/>
+      <c r="AQ5" s="15"/>
+      <c r="AR5" s="15"/>
     </row>
     <row r="6" spans="1:44" ht="17.100000000000001" customHeight="1">
-      <c r="A6" s="17"/>
-      <c r="B6" s="15" t="s">
+      <c r="A6" s="18"/>
+      <c r="B6" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="I6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="J6" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15" t="s">
+      <c r="K6" s="12"/>
+      <c r="L6" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15" t="s">
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="T6" s="15"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="15"/>
-      <c r="W6" s="15"/>
-      <c r="X6" s="15"/>
-      <c r="Y6" s="15"/>
-      <c r="Z6" s="15" t="s">
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="AA6" s="15"/>
-      <c r="AB6" s="15"/>
-      <c r="AC6" s="15"/>
-      <c r="AD6" s="15"/>
-      <c r="AE6" s="15"/>
-      <c r="AF6" s="15"/>
-      <c r="AG6" s="15" t="s">
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="12"/>
+      <c r="AE6" s="12"/>
+      <c r="AF6" s="12"/>
+      <c r="AG6" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="AH6" s="15"/>
-      <c r="AI6" s="15"/>
-      <c r="AJ6" s="15"/>
-      <c r="AK6" s="15"/>
-      <c r="AL6" s="15"/>
-      <c r="AM6" s="15"/>
-      <c r="AN6" s="15" t="s">
+      <c r="AH6" s="12"/>
+      <c r="AI6" s="12"/>
+      <c r="AJ6" s="12"/>
+      <c r="AK6" s="12"/>
+      <c r="AL6" s="12"/>
+      <c r="AM6" s="12"/>
+      <c r="AN6" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="AO6" s="15"/>
-      <c r="AP6" s="15"/>
-      <c r="AQ6" s="15"/>
-      <c r="AR6" s="15"/>
+      <c r="AO6" s="12"/>
+      <c r="AP6" s="12"/>
+      <c r="AQ6" s="12"/>
+      <c r="AR6" s="12"/>
     </row>
     <row r="7" spans="1:44" ht="17.100000000000001" customHeight="1">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
       <c r="J7" s="1">
         <v>3</v>
       </c>
@@ -5101,107 +5101,101 @@
       <c r="AR38" s="5"/>
     </row>
     <row r="39" spans="1:44" ht="3.95" customHeight="1">
-      <c r="A39" s="12"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="13"/>
-      <c r="L39" s="13"/>
-      <c r="M39" s="13"/>
-      <c r="N39" s="13"/>
-      <c r="O39" s="13"/>
-      <c r="P39" s="13"/>
-      <c r="Q39" s="13"/>
-      <c r="R39" s="13"/>
-      <c r="S39" s="13"/>
-      <c r="T39" s="13"/>
-      <c r="U39" s="13"/>
-      <c r="V39" s="13"/>
-      <c r="W39" s="13"/>
-      <c r="X39" s="13"/>
-      <c r="Y39" s="13"/>
-      <c r="Z39" s="13"/>
-      <c r="AA39" s="13"/>
-      <c r="AB39" s="13"/>
-      <c r="AC39" s="13"/>
-      <c r="AD39" s="13"/>
-      <c r="AE39" s="13"/>
-      <c r="AF39" s="13"/>
-      <c r="AG39" s="13"/>
-      <c r="AH39" s="13"/>
-      <c r="AI39" s="13"/>
-      <c r="AJ39" s="13"/>
-      <c r="AK39" s="13"/>
-      <c r="AL39" s="13"/>
-      <c r="AM39" s="13"/>
-      <c r="AN39" s="13"/>
-      <c r="AO39" s="13"/>
-      <c r="AP39" s="13"/>
-      <c r="AQ39" s="13"/>
-      <c r="AR39" s="13"/>
+      <c r="A39" s="14"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="15"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="15"/>
+      <c r="O39" s="15"/>
+      <c r="P39" s="15"/>
+      <c r="Q39" s="15"/>
+      <c r="R39" s="15"/>
+      <c r="S39" s="15"/>
+      <c r="T39" s="15"/>
+      <c r="U39" s="15"/>
+      <c r="V39" s="15"/>
+      <c r="W39" s="15"/>
+      <c r="X39" s="15"/>
+      <c r="Y39" s="15"/>
+      <c r="Z39" s="15"/>
+      <c r="AA39" s="15"/>
+      <c r="AB39" s="15"/>
+      <c r="AC39" s="15"/>
+      <c r="AD39" s="15"/>
+      <c r="AE39" s="15"/>
+      <c r="AF39" s="15"/>
+      <c r="AG39" s="15"/>
+      <c r="AH39" s="15"/>
+      <c r="AI39" s="15"/>
+      <c r="AJ39" s="15"/>
+      <c r="AK39" s="15"/>
+      <c r="AL39" s="15"/>
+      <c r="AM39" s="15"/>
+      <c r="AN39" s="15"/>
+      <c r="AO39" s="15"/>
+      <c r="AP39" s="15"/>
+      <c r="AQ39" s="15"/>
+      <c r="AR39" s="15"/>
     </row>
     <row r="40" spans="1:44" ht="18" customHeight="1">
-      <c r="A40" s="14" t="s">
+      <c r="A40" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="13"/>
-      <c r="L40" s="13"/>
-      <c r="M40" s="13"/>
-      <c r="N40" s="13"/>
-      <c r="O40" s="13"/>
-      <c r="P40" s="13"/>
-      <c r="Q40" s="13"/>
-      <c r="R40" s="13"/>
-      <c r="S40" s="13"/>
-      <c r="T40" s="13"/>
-      <c r="U40" s="13"/>
-      <c r="V40" s="13"/>
-      <c r="W40" s="13"/>
-      <c r="X40" s="13"/>
-      <c r="Y40" s="13"/>
-      <c r="Z40" s="13"/>
-      <c r="AA40" s="13"/>
-      <c r="AB40" s="13"/>
-      <c r="AC40" s="13"/>
-      <c r="AD40" s="13"/>
-      <c r="AE40" s="13"/>
-      <c r="AF40" s="13"/>
-      <c r="AG40" s="13"/>
-      <c r="AH40" s="13"/>
-      <c r="AI40" s="13"/>
-      <c r="AJ40" s="13"/>
-      <c r="AK40" s="13"/>
-      <c r="AL40" s="13"/>
-      <c r="AM40" s="13"/>
-      <c r="AN40" s="13"/>
-      <c r="AO40" s="13"/>
-      <c r="AP40" s="13"/>
-      <c r="AQ40" s="13"/>
-      <c r="AR40" s="13"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="15"/>
+      <c r="L40" s="15"/>
+      <c r="M40" s="15"/>
+      <c r="N40" s="15"/>
+      <c r="O40" s="15"/>
+      <c r="P40" s="15"/>
+      <c r="Q40" s="15"/>
+      <c r="R40" s="15"/>
+      <c r="S40" s="15"/>
+      <c r="T40" s="15"/>
+      <c r="U40" s="15"/>
+      <c r="V40" s="15"/>
+      <c r="W40" s="15"/>
+      <c r="X40" s="15"/>
+      <c r="Y40" s="15"/>
+      <c r="Z40" s="15"/>
+      <c r="AA40" s="15"/>
+      <c r="AB40" s="15"/>
+      <c r="AC40" s="15"/>
+      <c r="AD40" s="15"/>
+      <c r="AE40" s="15"/>
+      <c r="AF40" s="15"/>
+      <c r="AG40" s="15"/>
+      <c r="AH40" s="15"/>
+      <c r="AI40" s="15"/>
+      <c r="AJ40" s="15"/>
+      <c r="AK40" s="15"/>
+      <c r="AL40" s="15"/>
+      <c r="AM40" s="15"/>
+      <c r="AN40" s="15"/>
+      <c r="AO40" s="15"/>
+      <c r="AP40" s="15"/>
+      <c r="AQ40" s="15"/>
+      <c r="AR40" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="A1:AR1"/>
-    <mergeCell ref="A2:AR2"/>
-    <mergeCell ref="A3:AR3"/>
-    <mergeCell ref="A4:AR4"/>
-    <mergeCell ref="A5:AR5"/>
     <mergeCell ref="A39:AR39"/>
     <mergeCell ref="A40:AR40"/>
     <mergeCell ref="L6:R6"/>
@@ -5218,6 +5212,12 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="A1:AR1"/>
+    <mergeCell ref="A2:AR2"/>
+    <mergeCell ref="A3:AR3"/>
+    <mergeCell ref="A4:AR4"/>
+    <mergeCell ref="A5:AR5"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/캠핑장.xlsx
+++ b/캠핑장.xlsx
@@ -271,7 +271,7 @@
     <t>2018년 9월 2일</t>
   </si>
   <si>
-    <t>작성자 : 권석현 new</t>
+    <t>작성자 : 권석현 Pull request</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -475,26 +475,26 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2788,7 +2788,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2817,325 +2817,325 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="3.95" customHeight="1">
-      <c r="A1" s="14"/>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
-      <c r="X1" s="15"/>
-      <c r="Y1" s="15"/>
-      <c r="Z1" s="15"/>
-      <c r="AA1" s="15"/>
-      <c r="AB1" s="15"/>
-      <c r="AC1" s="15"/>
-      <c r="AD1" s="15"/>
-      <c r="AE1" s="15"/>
-      <c r="AF1" s="15"/>
-      <c r="AG1" s="15"/>
-      <c r="AH1" s="15"/>
-      <c r="AI1" s="15"/>
-      <c r="AJ1" s="15"/>
-      <c r="AK1" s="15"/>
-      <c r="AL1" s="15"/>
-      <c r="AM1" s="15"/>
-      <c r="AN1" s="15"/>
-      <c r="AO1" s="15"/>
-      <c r="AP1" s="15"/>
-      <c r="AQ1" s="15"/>
-      <c r="AR1" s="15"/>
+      <c r="A1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
+      <c r="AA1" s="13"/>
+      <c r="AB1" s="13"/>
+      <c r="AC1" s="13"/>
+      <c r="AD1" s="13"/>
+      <c r="AE1" s="13"/>
+      <c r="AF1" s="13"/>
+      <c r="AG1" s="13"/>
+      <c r="AH1" s="13"/>
+      <c r="AI1" s="13"/>
+      <c r="AJ1" s="13"/>
+      <c r="AK1" s="13"/>
+      <c r="AL1" s="13"/>
+      <c r="AM1" s="13"/>
+      <c r="AN1" s="13"/>
+      <c r="AO1" s="13"/>
+      <c r="AP1" s="13"/>
+      <c r="AQ1" s="13"/>
+      <c r="AR1" s="13"/>
     </row>
     <row r="2" spans="1:44" ht="18" customHeight="1">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="15"/>
-      <c r="X2" s="15"/>
-      <c r="Y2" s="15"/>
-      <c r="Z2" s="15"/>
-      <c r="AA2" s="15"/>
-      <c r="AB2" s="15"/>
-      <c r="AC2" s="15"/>
-      <c r="AD2" s="15"/>
-      <c r="AE2" s="15"/>
-      <c r="AF2" s="15"/>
-      <c r="AG2" s="15"/>
-      <c r="AH2" s="15"/>
-      <c r="AI2" s="15"/>
-      <c r="AJ2" s="15"/>
-      <c r="AK2" s="15"/>
-      <c r="AL2" s="15"/>
-      <c r="AM2" s="15"/>
-      <c r="AN2" s="15"/>
-      <c r="AO2" s="15"/>
-      <c r="AP2" s="15"/>
-      <c r="AQ2" s="15"/>
-      <c r="AR2" s="15"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="13"/>
+      <c r="AA2" s="13"/>
+      <c r="AB2" s="13"/>
+      <c r="AC2" s="13"/>
+      <c r="AD2" s="13"/>
+      <c r="AE2" s="13"/>
+      <c r="AF2" s="13"/>
+      <c r="AG2" s="13"/>
+      <c r="AH2" s="13"/>
+      <c r="AI2" s="13"/>
+      <c r="AJ2" s="13"/>
+      <c r="AK2" s="13"/>
+      <c r="AL2" s="13"/>
+      <c r="AM2" s="13"/>
+      <c r="AN2" s="13"/>
+      <c r="AO2" s="13"/>
+      <c r="AP2" s="13"/>
+      <c r="AQ2" s="13"/>
+      <c r="AR2" s="13"/>
     </row>
     <row r="3" spans="1:44" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="15"/>
-      <c r="W3" s="15"/>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="15"/>
-      <c r="Z3" s="15"/>
-      <c r="AA3" s="15"/>
-      <c r="AB3" s="15"/>
-      <c r="AC3" s="15"/>
-      <c r="AD3" s="15"/>
-      <c r="AE3" s="15"/>
-      <c r="AF3" s="15"/>
-      <c r="AG3" s="15"/>
-      <c r="AH3" s="15"/>
-      <c r="AI3" s="15"/>
-      <c r="AJ3" s="15"/>
-      <c r="AK3" s="15"/>
-      <c r="AL3" s="15"/>
-      <c r="AM3" s="15"/>
-      <c r="AN3" s="15"/>
-      <c r="AO3" s="15"/>
-      <c r="AP3" s="15"/>
-      <c r="AQ3" s="15"/>
-      <c r="AR3" s="15"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="13"/>
+      <c r="X3" s="13"/>
+      <c r="Y3" s="13"/>
+      <c r="Z3" s="13"/>
+      <c r="AA3" s="13"/>
+      <c r="AB3" s="13"/>
+      <c r="AC3" s="13"/>
+      <c r="AD3" s="13"/>
+      <c r="AE3" s="13"/>
+      <c r="AF3" s="13"/>
+      <c r="AG3" s="13"/>
+      <c r="AH3" s="13"/>
+      <c r="AI3" s="13"/>
+      <c r="AJ3" s="13"/>
+      <c r="AK3" s="13"/>
+      <c r="AL3" s="13"/>
+      <c r="AM3" s="13"/>
+      <c r="AN3" s="13"/>
+      <c r="AO3" s="13"/>
+      <c r="AP3" s="13"/>
+      <c r="AQ3" s="13"/>
+      <c r="AR3" s="13"/>
     </row>
     <row r="4" spans="1:44" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="15"/>
-      <c r="W4" s="15"/>
-      <c r="X4" s="15"/>
-      <c r="Y4" s="15"/>
-      <c r="Z4" s="15"/>
-      <c r="AA4" s="15"/>
-      <c r="AB4" s="15"/>
-      <c r="AC4" s="15"/>
-      <c r="AD4" s="15"/>
-      <c r="AE4" s="15"/>
-      <c r="AF4" s="15"/>
-      <c r="AG4" s="15"/>
-      <c r="AH4" s="15"/>
-      <c r="AI4" s="15"/>
-      <c r="AJ4" s="15"/>
-      <c r="AK4" s="15"/>
-      <c r="AL4" s="15"/>
-      <c r="AM4" s="15"/>
-      <c r="AN4" s="15"/>
-      <c r="AO4" s="15"/>
-      <c r="AP4" s="15"/>
-      <c r="AQ4" s="15"/>
-      <c r="AR4" s="15"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="13"/>
+      <c r="Z4" s="13"/>
+      <c r="AA4" s="13"/>
+      <c r="AB4" s="13"/>
+      <c r="AC4" s="13"/>
+      <c r="AD4" s="13"/>
+      <c r="AE4" s="13"/>
+      <c r="AF4" s="13"/>
+      <c r="AG4" s="13"/>
+      <c r="AH4" s="13"/>
+      <c r="AI4" s="13"/>
+      <c r="AJ4" s="13"/>
+      <c r="AK4" s="13"/>
+      <c r="AL4" s="13"/>
+      <c r="AM4" s="13"/>
+      <c r="AN4" s="13"/>
+      <c r="AO4" s="13"/>
+      <c r="AP4" s="13"/>
+      <c r="AQ4" s="13"/>
+      <c r="AR4" s="13"/>
     </row>
     <row r="5" spans="1:44" ht="3.95" customHeight="1">
-      <c r="A5" s="14"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
-      <c r="V5" s="15"/>
-      <c r="W5" s="15"/>
-      <c r="X5" s="15"/>
-      <c r="Y5" s="15"/>
-      <c r="Z5" s="15"/>
-      <c r="AA5" s="15"/>
-      <c r="AB5" s="15"/>
-      <c r="AC5" s="15"/>
-      <c r="AD5" s="15"/>
-      <c r="AE5" s="15"/>
-      <c r="AF5" s="15"/>
-      <c r="AG5" s="15"/>
-      <c r="AH5" s="15"/>
-      <c r="AI5" s="15"/>
-      <c r="AJ5" s="15"/>
-      <c r="AK5" s="15"/>
-      <c r="AL5" s="15"/>
-      <c r="AM5" s="15"/>
-      <c r="AN5" s="15"/>
-      <c r="AO5" s="15"/>
-      <c r="AP5" s="15"/>
-      <c r="AQ5" s="15"/>
-      <c r="AR5" s="15"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="13"/>
+      <c r="Z5" s="13"/>
+      <c r="AA5" s="13"/>
+      <c r="AB5" s="13"/>
+      <c r="AC5" s="13"/>
+      <c r="AD5" s="13"/>
+      <c r="AE5" s="13"/>
+      <c r="AF5" s="13"/>
+      <c r="AG5" s="13"/>
+      <c r="AH5" s="13"/>
+      <c r="AI5" s="13"/>
+      <c r="AJ5" s="13"/>
+      <c r="AK5" s="13"/>
+      <c r="AL5" s="13"/>
+      <c r="AM5" s="13"/>
+      <c r="AN5" s="13"/>
+      <c r="AO5" s="13"/>
+      <c r="AP5" s="13"/>
+      <c r="AQ5" s="13"/>
+      <c r="AR5" s="13"/>
     </row>
     <row r="6" spans="1:44" ht="17.100000000000001" customHeight="1">
-      <c r="A6" s="18"/>
-      <c r="B6" s="12" t="s">
+      <c r="A6" s="17"/>
+      <c r="B6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="J6" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12" t="s">
+      <c r="K6" s="15"/>
+      <c r="L6" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12" t="s">
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="12" t="s">
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="AA6" s="12"/>
-      <c r="AB6" s="12"/>
-      <c r="AC6" s="12"/>
-      <c r="AD6" s="12"/>
-      <c r="AE6" s="12"/>
-      <c r="AF6" s="12"/>
-      <c r="AG6" s="12" t="s">
+      <c r="AA6" s="15"/>
+      <c r="AB6" s="15"/>
+      <c r="AC6" s="15"/>
+      <c r="AD6" s="15"/>
+      <c r="AE6" s="15"/>
+      <c r="AF6" s="15"/>
+      <c r="AG6" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="AH6" s="12"/>
-      <c r="AI6" s="12"/>
-      <c r="AJ6" s="12"/>
-      <c r="AK6" s="12"/>
-      <c r="AL6" s="12"/>
-      <c r="AM6" s="12"/>
-      <c r="AN6" s="12" t="s">
+      <c r="AH6" s="15"/>
+      <c r="AI6" s="15"/>
+      <c r="AJ6" s="15"/>
+      <c r="AK6" s="15"/>
+      <c r="AL6" s="15"/>
+      <c r="AM6" s="15"/>
+      <c r="AN6" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="AO6" s="12"/>
-      <c r="AP6" s="12"/>
-      <c r="AQ6" s="12"/>
-      <c r="AR6" s="12"/>
+      <c r="AO6" s="15"/>
+      <c r="AP6" s="15"/>
+      <c r="AQ6" s="15"/>
+      <c r="AR6" s="15"/>
     </row>
     <row r="7" spans="1:44" ht="17.100000000000001" customHeight="1">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
       <c r="J7" s="1">
         <v>3</v>
       </c>
@@ -5101,101 +5101,107 @@
       <c r="AR38" s="5"/>
     </row>
     <row r="39" spans="1:44" ht="3.95" customHeight="1">
-      <c r="A39" s="14"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="15"/>
-      <c r="L39" s="15"/>
-      <c r="M39" s="15"/>
-      <c r="N39" s="15"/>
-      <c r="O39" s="15"/>
-      <c r="P39" s="15"/>
-      <c r="Q39" s="15"/>
-      <c r="R39" s="15"/>
-      <c r="S39" s="15"/>
-      <c r="T39" s="15"/>
-      <c r="U39" s="15"/>
-      <c r="V39" s="15"/>
-      <c r="W39" s="15"/>
-      <c r="X39" s="15"/>
-      <c r="Y39" s="15"/>
-      <c r="Z39" s="15"/>
-      <c r="AA39" s="15"/>
-      <c r="AB39" s="15"/>
-      <c r="AC39" s="15"/>
-      <c r="AD39" s="15"/>
-      <c r="AE39" s="15"/>
-      <c r="AF39" s="15"/>
-      <c r="AG39" s="15"/>
-      <c r="AH39" s="15"/>
-      <c r="AI39" s="15"/>
-      <c r="AJ39" s="15"/>
-      <c r="AK39" s="15"/>
-      <c r="AL39" s="15"/>
-      <c r="AM39" s="15"/>
-      <c r="AN39" s="15"/>
-      <c r="AO39" s="15"/>
-      <c r="AP39" s="15"/>
-      <c r="AQ39" s="15"/>
-      <c r="AR39" s="15"/>
+      <c r="A39" s="12"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="13"/>
+      <c r="N39" s="13"/>
+      <c r="O39" s="13"/>
+      <c r="P39" s="13"/>
+      <c r="Q39" s="13"/>
+      <c r="R39" s="13"/>
+      <c r="S39" s="13"/>
+      <c r="T39" s="13"/>
+      <c r="U39" s="13"/>
+      <c r="V39" s="13"/>
+      <c r="W39" s="13"/>
+      <c r="X39" s="13"/>
+      <c r="Y39" s="13"/>
+      <c r="Z39" s="13"/>
+      <c r="AA39" s="13"/>
+      <c r="AB39" s="13"/>
+      <c r="AC39" s="13"/>
+      <c r="AD39" s="13"/>
+      <c r="AE39" s="13"/>
+      <c r="AF39" s="13"/>
+      <c r="AG39" s="13"/>
+      <c r="AH39" s="13"/>
+      <c r="AI39" s="13"/>
+      <c r="AJ39" s="13"/>
+      <c r="AK39" s="13"/>
+      <c r="AL39" s="13"/>
+      <c r="AM39" s="13"/>
+      <c r="AN39" s="13"/>
+      <c r="AO39" s="13"/>
+      <c r="AP39" s="13"/>
+      <c r="AQ39" s="13"/>
+      <c r="AR39" s="13"/>
     </row>
     <row r="40" spans="1:44" ht="18" customHeight="1">
-      <c r="A40" s="17" t="s">
+      <c r="A40" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="15"/>
-      <c r="K40" s="15"/>
-      <c r="L40" s="15"/>
-      <c r="M40" s="15"/>
-      <c r="N40" s="15"/>
-      <c r="O40" s="15"/>
-      <c r="P40" s="15"/>
-      <c r="Q40" s="15"/>
-      <c r="R40" s="15"/>
-      <c r="S40" s="15"/>
-      <c r="T40" s="15"/>
-      <c r="U40" s="15"/>
-      <c r="V40" s="15"/>
-      <c r="W40" s="15"/>
-      <c r="X40" s="15"/>
-      <c r="Y40" s="15"/>
-      <c r="Z40" s="15"/>
-      <c r="AA40" s="15"/>
-      <c r="AB40" s="15"/>
-      <c r="AC40" s="15"/>
-      <c r="AD40" s="15"/>
-      <c r="AE40" s="15"/>
-      <c r="AF40" s="15"/>
-      <c r="AG40" s="15"/>
-      <c r="AH40" s="15"/>
-      <c r="AI40" s="15"/>
-      <c r="AJ40" s="15"/>
-      <c r="AK40" s="15"/>
-      <c r="AL40" s="15"/>
-      <c r="AM40" s="15"/>
-      <c r="AN40" s="15"/>
-      <c r="AO40" s="15"/>
-      <c r="AP40" s="15"/>
-      <c r="AQ40" s="15"/>
-      <c r="AR40" s="15"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="13"/>
+      <c r="N40" s="13"/>
+      <c r="O40" s="13"/>
+      <c r="P40" s="13"/>
+      <c r="Q40" s="13"/>
+      <c r="R40" s="13"/>
+      <c r="S40" s="13"/>
+      <c r="T40" s="13"/>
+      <c r="U40" s="13"/>
+      <c r="V40" s="13"/>
+      <c r="W40" s="13"/>
+      <c r="X40" s="13"/>
+      <c r="Y40" s="13"/>
+      <c r="Z40" s="13"/>
+      <c r="AA40" s="13"/>
+      <c r="AB40" s="13"/>
+      <c r="AC40" s="13"/>
+      <c r="AD40" s="13"/>
+      <c r="AE40" s="13"/>
+      <c r="AF40" s="13"/>
+      <c r="AG40" s="13"/>
+      <c r="AH40" s="13"/>
+      <c r="AI40" s="13"/>
+      <c r="AJ40" s="13"/>
+      <c r="AK40" s="13"/>
+      <c r="AL40" s="13"/>
+      <c r="AM40" s="13"/>
+      <c r="AN40" s="13"/>
+      <c r="AO40" s="13"/>
+      <c r="AP40" s="13"/>
+      <c r="AQ40" s="13"/>
+      <c r="AR40" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="A1:AR1"/>
+    <mergeCell ref="A2:AR2"/>
+    <mergeCell ref="A3:AR3"/>
+    <mergeCell ref="A4:AR4"/>
+    <mergeCell ref="A5:AR5"/>
     <mergeCell ref="A39:AR39"/>
     <mergeCell ref="A40:AR40"/>
     <mergeCell ref="L6:R6"/>
@@ -5212,12 +5218,6 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="A1:AR1"/>
-    <mergeCell ref="A2:AR2"/>
-    <mergeCell ref="A3:AR3"/>
-    <mergeCell ref="A4:AR4"/>
-    <mergeCell ref="A5:AR5"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/캠핑장.xlsx
+++ b/캠핑장.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\5CLASS-184\Desktop\finalProject\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB3101C3-3B3C-4FD5-88B2-738931C1ED79}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27855" windowHeight="12975"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27855" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -271,15 +277,15 @@
     <t>2018년 9월 2일</t>
   </si>
   <si>
-    <t>작성자 : 권석현 Pull request</t>
+    <t>작성자 : 권석현, 전다혜</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
@@ -475,26 +481,26 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -530,7 +536,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="rect 1"/>
+        <xdr:cNvPr id="32" name="rect 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -595,7 +607,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="rect 1"/>
+        <xdr:cNvPr id="31" name="rect 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -660,7 +678,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="rect 1"/>
+        <xdr:cNvPr id="30" name="rect 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -725,7 +749,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="rect 1"/>
+        <xdr:cNvPr id="29" name="rect 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -790,7 +820,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="rect 1"/>
+        <xdr:cNvPr id="28" name="rect 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -855,7 +891,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="rect 1"/>
+        <xdr:cNvPr id="27" name="rect 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -920,7 +962,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="rect 1"/>
+        <xdr:cNvPr id="26" name="rect 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -985,7 +1033,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="rect 1"/>
+        <xdr:cNvPr id="25" name="rect 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1050,7 +1104,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="rect 1"/>
+        <xdr:cNvPr id="24" name="rect 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1115,7 +1175,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="rect 1"/>
+        <xdr:cNvPr id="23" name="rect 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1180,7 +1246,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="rect 1"/>
+        <xdr:cNvPr id="22" name="rect 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1245,7 +1317,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="rect 1"/>
+        <xdr:cNvPr id="21" name="rect 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1310,7 +1388,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="rect 1"/>
+        <xdr:cNvPr id="20" name="rect 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1375,7 +1459,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="rect 1"/>
+        <xdr:cNvPr id="19" name="rect 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1440,7 +1530,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="rect 1"/>
+        <xdr:cNvPr id="18" name="rect 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1505,7 +1601,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="rect 1"/>
+        <xdr:cNvPr id="17" name="rect 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1570,7 +1672,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="rect 1"/>
+        <xdr:cNvPr id="16" name="rect 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1635,7 +1743,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="rect 1"/>
+        <xdr:cNvPr id="15" name="rect 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1700,7 +1814,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="rect 1"/>
+        <xdr:cNvPr id="14" name="rect 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1765,7 +1885,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="rect 1"/>
+        <xdr:cNvPr id="13" name="rect 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1830,7 +1956,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="rect 1"/>
+        <xdr:cNvPr id="12" name="rect 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1895,7 +2027,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="rect 1"/>
+        <xdr:cNvPr id="11" name="rect 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1960,7 +2098,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="rect 1"/>
+        <xdr:cNvPr id="10" name="rect 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2025,7 +2169,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="rect 1"/>
+        <xdr:cNvPr id="9" name="rect 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2090,7 +2240,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="rect 1"/>
+        <xdr:cNvPr id="8" name="rect 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2155,7 +2311,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="rect 1"/>
+        <xdr:cNvPr id="7" name="rect 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2220,7 +2382,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="rect 1"/>
+        <xdr:cNvPr id="6" name="rect 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2285,7 +2453,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="rect 1"/>
+        <xdr:cNvPr id="5" name="rect 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2350,7 +2524,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="rect 1"/>
+        <xdr:cNvPr id="4" name="rect 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2415,7 +2595,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="rect 1"/>
+        <xdr:cNvPr id="3" name="rect 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2480,7 +2666,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="rect 1"/>
+        <xdr:cNvPr id="2" name="rect 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2788,14 +2980,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AR40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2803,7 +2995,7 @@
       <selection pane="bottomLeft" activeCell="A3" sqref="A3:AR3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="35.140625" customWidth="1"/>
@@ -2816,326 +3008,326 @@
     <col min="10" max="44" width="3.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" ht="3.95" customHeight="1">
-      <c r="A1" s="12"/>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="13"/>
-      <c r="Z1" s="13"/>
-      <c r="AA1" s="13"/>
-      <c r="AB1" s="13"/>
-      <c r="AC1" s="13"/>
-      <c r="AD1" s="13"/>
-      <c r="AE1" s="13"/>
-      <c r="AF1" s="13"/>
-      <c r="AG1" s="13"/>
-      <c r="AH1" s="13"/>
-      <c r="AI1" s="13"/>
-      <c r="AJ1" s="13"/>
-      <c r="AK1" s="13"/>
-      <c r="AL1" s="13"/>
-      <c r="AM1" s="13"/>
-      <c r="AN1" s="13"/>
-      <c r="AO1" s="13"/>
-      <c r="AP1" s="13"/>
-      <c r="AQ1" s="13"/>
-      <c r="AR1" s="13"/>
+    <row r="1" spans="1:44" ht="3.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="15"/>
+      <c r="AD1" s="15"/>
+      <c r="AE1" s="15"/>
+      <c r="AF1" s="15"/>
+      <c r="AG1" s="15"/>
+      <c r="AH1" s="15"/>
+      <c r="AI1" s="15"/>
+      <c r="AJ1" s="15"/>
+      <c r="AK1" s="15"/>
+      <c r="AL1" s="15"/>
+      <c r="AM1" s="15"/>
+      <c r="AN1" s="15"/>
+      <c r="AO1" s="15"/>
+      <c r="AP1" s="15"/>
+      <c r="AQ1" s="15"/>
+      <c r="AR1" s="15"/>
     </row>
-    <row r="2" spans="1:44" ht="18" customHeight="1">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
-      <c r="X2" s="13"/>
-      <c r="Y2" s="13"/>
-      <c r="Z2" s="13"/>
-      <c r="AA2" s="13"/>
-      <c r="AB2" s="13"/>
-      <c r="AC2" s="13"/>
-      <c r="AD2" s="13"/>
-      <c r="AE2" s="13"/>
-      <c r="AF2" s="13"/>
-      <c r="AG2" s="13"/>
-      <c r="AH2" s="13"/>
-      <c r="AI2" s="13"/>
-      <c r="AJ2" s="13"/>
-      <c r="AK2" s="13"/>
-      <c r="AL2" s="13"/>
-      <c r="AM2" s="13"/>
-      <c r="AN2" s="13"/>
-      <c r="AO2" s="13"/>
-      <c r="AP2" s="13"/>
-      <c r="AQ2" s="13"/>
-      <c r="AR2" s="13"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
+      <c r="X2" s="15"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="15"/>
+      <c r="AA2" s="15"/>
+      <c r="AB2" s="15"/>
+      <c r="AC2" s="15"/>
+      <c r="AD2" s="15"/>
+      <c r="AE2" s="15"/>
+      <c r="AF2" s="15"/>
+      <c r="AG2" s="15"/>
+      <c r="AH2" s="15"/>
+      <c r="AI2" s="15"/>
+      <c r="AJ2" s="15"/>
+      <c r="AK2" s="15"/>
+      <c r="AL2" s="15"/>
+      <c r="AM2" s="15"/>
+      <c r="AN2" s="15"/>
+      <c r="AO2" s="15"/>
+      <c r="AP2" s="15"/>
+      <c r="AQ2" s="15"/>
+      <c r="AR2" s="15"/>
     </row>
-    <row r="3" spans="1:44" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:44" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13"/>
-      <c r="V3" s="13"/>
-      <c r="W3" s="13"/>
-      <c r="X3" s="13"/>
-      <c r="Y3" s="13"/>
-      <c r="Z3" s="13"/>
-      <c r="AA3" s="13"/>
-      <c r="AB3" s="13"/>
-      <c r="AC3" s="13"/>
-      <c r="AD3" s="13"/>
-      <c r="AE3" s="13"/>
-      <c r="AF3" s="13"/>
-      <c r="AG3" s="13"/>
-      <c r="AH3" s="13"/>
-      <c r="AI3" s="13"/>
-      <c r="AJ3" s="13"/>
-      <c r="AK3" s="13"/>
-      <c r="AL3" s="13"/>
-      <c r="AM3" s="13"/>
-      <c r="AN3" s="13"/>
-      <c r="AO3" s="13"/>
-      <c r="AP3" s="13"/>
-      <c r="AQ3" s="13"/>
-      <c r="AR3" s="13"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="15"/>
+      <c r="X3" s="15"/>
+      <c r="Y3" s="15"/>
+      <c r="Z3" s="15"/>
+      <c r="AA3" s="15"/>
+      <c r="AB3" s="15"/>
+      <c r="AC3" s="15"/>
+      <c r="AD3" s="15"/>
+      <c r="AE3" s="15"/>
+      <c r="AF3" s="15"/>
+      <c r="AG3" s="15"/>
+      <c r="AH3" s="15"/>
+      <c r="AI3" s="15"/>
+      <c r="AJ3" s="15"/>
+      <c r="AK3" s="15"/>
+      <c r="AL3" s="15"/>
+      <c r="AM3" s="15"/>
+      <c r="AN3" s="15"/>
+      <c r="AO3" s="15"/>
+      <c r="AP3" s="15"/>
+      <c r="AQ3" s="15"/>
+      <c r="AR3" s="15"/>
     </row>
-    <row r="4" spans="1:44" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:44" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="13"/>
-      <c r="Y4" s="13"/>
-      <c r="Z4" s="13"/>
-      <c r="AA4" s="13"/>
-      <c r="AB4" s="13"/>
-      <c r="AC4" s="13"/>
-      <c r="AD4" s="13"/>
-      <c r="AE4" s="13"/>
-      <c r="AF4" s="13"/>
-      <c r="AG4" s="13"/>
-      <c r="AH4" s="13"/>
-      <c r="AI4" s="13"/>
-      <c r="AJ4" s="13"/>
-      <c r="AK4" s="13"/>
-      <c r="AL4" s="13"/>
-      <c r="AM4" s="13"/>
-      <c r="AN4" s="13"/>
-      <c r="AO4" s="13"/>
-      <c r="AP4" s="13"/>
-      <c r="AQ4" s="13"/>
-      <c r="AR4" s="13"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="15"/>
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="15"/>
+      <c r="AA4" s="15"/>
+      <c r="AB4" s="15"/>
+      <c r="AC4" s="15"/>
+      <c r="AD4" s="15"/>
+      <c r="AE4" s="15"/>
+      <c r="AF4" s="15"/>
+      <c r="AG4" s="15"/>
+      <c r="AH4" s="15"/>
+      <c r="AI4" s="15"/>
+      <c r="AJ4" s="15"/>
+      <c r="AK4" s="15"/>
+      <c r="AL4" s="15"/>
+      <c r="AM4" s="15"/>
+      <c r="AN4" s="15"/>
+      <c r="AO4" s="15"/>
+      <c r="AP4" s="15"/>
+      <c r="AQ4" s="15"/>
+      <c r="AR4" s="15"/>
     </row>
-    <row r="5" spans="1:44" ht="3.95" customHeight="1">
-      <c r="A5" s="12"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13"/>
-      <c r="W5" s="13"/>
-      <c r="X5" s="13"/>
-      <c r="Y5" s="13"/>
-      <c r="Z5" s="13"/>
-      <c r="AA5" s="13"/>
-      <c r="AB5" s="13"/>
-      <c r="AC5" s="13"/>
-      <c r="AD5" s="13"/>
-      <c r="AE5" s="13"/>
-      <c r="AF5" s="13"/>
-      <c r="AG5" s="13"/>
-      <c r="AH5" s="13"/>
-      <c r="AI5" s="13"/>
-      <c r="AJ5" s="13"/>
-      <c r="AK5" s="13"/>
-      <c r="AL5" s="13"/>
-      <c r="AM5" s="13"/>
-      <c r="AN5" s="13"/>
-      <c r="AO5" s="13"/>
-      <c r="AP5" s="13"/>
-      <c r="AQ5" s="13"/>
-      <c r="AR5" s="13"/>
+    <row r="5" spans="1:44" ht="3.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="14"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="15"/>
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="15"/>
+      <c r="AA5" s="15"/>
+      <c r="AB5" s="15"/>
+      <c r="AC5" s="15"/>
+      <c r="AD5" s="15"/>
+      <c r="AE5" s="15"/>
+      <c r="AF5" s="15"/>
+      <c r="AG5" s="15"/>
+      <c r="AH5" s="15"/>
+      <c r="AI5" s="15"/>
+      <c r="AJ5" s="15"/>
+      <c r="AK5" s="15"/>
+      <c r="AL5" s="15"/>
+      <c r="AM5" s="15"/>
+      <c r="AN5" s="15"/>
+      <c r="AO5" s="15"/>
+      <c r="AP5" s="15"/>
+      <c r="AQ5" s="15"/>
+      <c r="AR5" s="15"/>
     </row>
-    <row r="6" spans="1:44" ht="17.100000000000001" customHeight="1">
-      <c r="A6" s="17"/>
-      <c r="B6" s="15" t="s">
+    <row r="6" spans="1:44" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="18"/>
+      <c r="B6" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="I6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="J6" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15" t="s">
+      <c r="K6" s="12"/>
+      <c r="L6" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15" t="s">
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="T6" s="15"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="15"/>
-      <c r="W6" s="15"/>
-      <c r="X6" s="15"/>
-      <c r="Y6" s="15"/>
-      <c r="Z6" s="15" t="s">
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="AA6" s="15"/>
-      <c r="AB6" s="15"/>
-      <c r="AC6" s="15"/>
-      <c r="AD6" s="15"/>
-      <c r="AE6" s="15"/>
-      <c r="AF6" s="15"/>
-      <c r="AG6" s="15" t="s">
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="12"/>
+      <c r="AE6" s="12"/>
+      <c r="AF6" s="12"/>
+      <c r="AG6" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="AH6" s="15"/>
-      <c r="AI6" s="15"/>
-      <c r="AJ6" s="15"/>
-      <c r="AK6" s="15"/>
-      <c r="AL6" s="15"/>
-      <c r="AM6" s="15"/>
-      <c r="AN6" s="15" t="s">
+      <c r="AH6" s="12"/>
+      <c r="AI6" s="12"/>
+      <c r="AJ6" s="12"/>
+      <c r="AK6" s="12"/>
+      <c r="AL6" s="12"/>
+      <c r="AM6" s="12"/>
+      <c r="AN6" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="AO6" s="15"/>
-      <c r="AP6" s="15"/>
-      <c r="AQ6" s="15"/>
-      <c r="AR6" s="15"/>
+      <c r="AO6" s="12"/>
+      <c r="AP6" s="12"/>
+      <c r="AQ6" s="12"/>
+      <c r="AR6" s="12"/>
     </row>
-    <row r="7" spans="1:44" ht="17.100000000000001" customHeight="1">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
+    <row r="7" spans="1:44" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
       <c r="J7" s="1">
         <v>3</v>
       </c>
@@ -3242,7 +3434,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:44" ht="18" customHeight="1">
+    <row r="8" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -3300,7 +3492,7 @@
       <c r="AQ8" s="5"/>
       <c r="AR8" s="5"/>
     </row>
-    <row r="9" spans="1:44" ht="18" customHeight="1">
+    <row r="9" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>2</v>
       </c>
@@ -3360,7 +3552,7 @@
       <c r="AQ9" s="10"/>
       <c r="AR9" s="10"/>
     </row>
-    <row r="10" spans="1:44" ht="18" customHeight="1">
+    <row r="10" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>3</v>
       </c>
@@ -3420,7 +3612,7 @@
       <c r="AQ10" s="5"/>
       <c r="AR10" s="5"/>
     </row>
-    <row r="11" spans="1:44" ht="18" customHeight="1">
+    <row r="11" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>4</v>
       </c>
@@ -3480,7 +3672,7 @@
       <c r="AQ11" s="10"/>
       <c r="AR11" s="10"/>
     </row>
-    <row r="12" spans="1:44" ht="18" customHeight="1">
+    <row r="12" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>5</v>
       </c>
@@ -3540,7 +3732,7 @@
       <c r="AQ12" s="5"/>
       <c r="AR12" s="5"/>
     </row>
-    <row r="13" spans="1:44" ht="18" customHeight="1">
+    <row r="13" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>6</v>
       </c>
@@ -3600,7 +3792,7 @@
       <c r="AQ13" s="10"/>
       <c r="AR13" s="10"/>
     </row>
-    <row r="14" spans="1:44" ht="18" customHeight="1">
+    <row r="14" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>7</v>
       </c>
@@ -3660,7 +3852,7 @@
       <c r="AQ14" s="5"/>
       <c r="AR14" s="5"/>
     </row>
-    <row r="15" spans="1:44" ht="18" customHeight="1">
+    <row r="15" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>8</v>
       </c>
@@ -3720,7 +3912,7 @@
       <c r="AQ15" s="10"/>
       <c r="AR15" s="10"/>
     </row>
-    <row r="16" spans="1:44" ht="18" customHeight="1">
+    <row r="16" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>9</v>
       </c>
@@ -3780,7 +3972,7 @@
       <c r="AQ16" s="5"/>
       <c r="AR16" s="5"/>
     </row>
-    <row r="17" spans="1:44" ht="18" customHeight="1">
+    <row r="17" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>10</v>
       </c>
@@ -3840,7 +4032,7 @@
       <c r="AQ17" s="10"/>
       <c r="AR17" s="10"/>
     </row>
-    <row r="18" spans="1:44" ht="18" customHeight="1">
+    <row r="18" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>11</v>
       </c>
@@ -3900,7 +4092,7 @@
       <c r="AQ18" s="5"/>
       <c r="AR18" s="5"/>
     </row>
-    <row r="19" spans="1:44" ht="18" customHeight="1">
+    <row r="19" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>12</v>
       </c>
@@ -3960,7 +4152,7 @@
       <c r="AQ19" s="10"/>
       <c r="AR19" s="10"/>
     </row>
-    <row r="20" spans="1:44" ht="18" customHeight="1">
+    <row r="20" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>13</v>
       </c>
@@ -4020,7 +4212,7 @@
       <c r="AQ20" s="5"/>
       <c r="AR20" s="5"/>
     </row>
-    <row r="21" spans="1:44" ht="18" customHeight="1">
+    <row r="21" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <v>14</v>
       </c>
@@ -4080,7 +4272,7 @@
       <c r="AQ21" s="10"/>
       <c r="AR21" s="10"/>
     </row>
-    <row r="22" spans="1:44" ht="18" customHeight="1">
+    <row r="22" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>15</v>
       </c>
@@ -4140,7 +4332,7 @@
       <c r="AQ22" s="5"/>
       <c r="AR22" s="5"/>
     </row>
-    <row r="23" spans="1:44" ht="18" customHeight="1">
+    <row r="23" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <v>16</v>
       </c>
@@ -4200,7 +4392,7 @@
       <c r="AQ23" s="10"/>
       <c r="AR23" s="10"/>
     </row>
-    <row r="24" spans="1:44" ht="18" customHeight="1">
+    <row r="24" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>17</v>
       </c>
@@ -4260,7 +4452,7 @@
       <c r="AQ24" s="5"/>
       <c r="AR24" s="5"/>
     </row>
-    <row r="25" spans="1:44" ht="18" customHeight="1">
+    <row r="25" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
         <v>18</v>
       </c>
@@ -4320,7 +4512,7 @@
       <c r="AQ25" s="10"/>
       <c r="AR25" s="10"/>
     </row>
-    <row r="26" spans="1:44" ht="18" customHeight="1">
+    <row r="26" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>19</v>
       </c>
@@ -4380,7 +4572,7 @@
       <c r="AQ26" s="5"/>
       <c r="AR26" s="5"/>
     </row>
-    <row r="27" spans="1:44" ht="18" customHeight="1">
+    <row r="27" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
         <v>20</v>
       </c>
@@ -4440,7 +4632,7 @@
       <c r="AQ27" s="10"/>
       <c r="AR27" s="10"/>
     </row>
-    <row r="28" spans="1:44" ht="18" customHeight="1">
+    <row r="28" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>21</v>
       </c>
@@ -4500,7 +4692,7 @@
       <c r="AQ28" s="5"/>
       <c r="AR28" s="5"/>
     </row>
-    <row r="29" spans="1:44" ht="18" customHeight="1">
+    <row r="29" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
         <v>22</v>
       </c>
@@ -4560,7 +4752,7 @@
       <c r="AQ29" s="10"/>
       <c r="AR29" s="10"/>
     </row>
-    <row r="30" spans="1:44" ht="18" customHeight="1">
+    <row r="30" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>23</v>
       </c>
@@ -4620,7 +4812,7 @@
       <c r="AQ30" s="5"/>
       <c r="AR30" s="5"/>
     </row>
-    <row r="31" spans="1:44" ht="18" customHeight="1">
+    <row r="31" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
         <v>24</v>
       </c>
@@ -4680,7 +4872,7 @@
       <c r="AQ31" s="10"/>
       <c r="AR31" s="10"/>
     </row>
-    <row r="32" spans="1:44" ht="18" customHeight="1">
+    <row r="32" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>25</v>
       </c>
@@ -4740,7 +4932,7 @@
       <c r="AQ32" s="5"/>
       <c r="AR32" s="5"/>
     </row>
-    <row r="33" spans="1:44" ht="18" customHeight="1">
+    <row r="33" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="7">
         <v>26</v>
       </c>
@@ -4800,7 +4992,7 @@
       <c r="AQ33" s="10"/>
       <c r="AR33" s="10"/>
     </row>
-    <row r="34" spans="1:44" ht="18" customHeight="1">
+    <row r="34" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>27</v>
       </c>
@@ -4860,7 +5052,7 @@
       <c r="AQ34" s="5"/>
       <c r="AR34" s="5"/>
     </row>
-    <row r="35" spans="1:44" ht="18" customHeight="1">
+    <row r="35" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="7">
         <v>28</v>
       </c>
@@ -4920,7 +5112,7 @@
       <c r="AQ35" s="10"/>
       <c r="AR35" s="10"/>
     </row>
-    <row r="36" spans="1:44" ht="18" customHeight="1">
+    <row r="36" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>29</v>
       </c>
@@ -4980,7 +5172,7 @@
       <c r="AQ36" s="5"/>
       <c r="AR36" s="5"/>
     </row>
-    <row r="37" spans="1:44" ht="18" customHeight="1">
+    <row r="37" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="7">
         <v>30</v>
       </c>
@@ -5040,7 +5232,7 @@
       <c r="AQ37" s="10"/>
       <c r="AR37" s="10"/>
     </row>
-    <row r="38" spans="1:44" ht="18" customHeight="1">
+    <row r="38" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>31</v>
       </c>
@@ -5100,108 +5292,102 @@
       <c r="AQ38" s="5"/>
       <c r="AR38" s="5"/>
     </row>
-    <row r="39" spans="1:44" ht="3.95" customHeight="1">
-      <c r="A39" s="12"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="13"/>
-      <c r="L39" s="13"/>
-      <c r="M39" s="13"/>
-      <c r="N39" s="13"/>
-      <c r="O39" s="13"/>
-      <c r="P39" s="13"/>
-      <c r="Q39" s="13"/>
-      <c r="R39" s="13"/>
-      <c r="S39" s="13"/>
-      <c r="T39" s="13"/>
-      <c r="U39" s="13"/>
-      <c r="V39" s="13"/>
-      <c r="W39" s="13"/>
-      <c r="X39" s="13"/>
-      <c r="Y39" s="13"/>
-      <c r="Z39" s="13"/>
-      <c r="AA39" s="13"/>
-      <c r="AB39" s="13"/>
-      <c r="AC39" s="13"/>
-      <c r="AD39" s="13"/>
-      <c r="AE39" s="13"/>
-      <c r="AF39" s="13"/>
-      <c r="AG39" s="13"/>
-      <c r="AH39" s="13"/>
-      <c r="AI39" s="13"/>
-      <c r="AJ39" s="13"/>
-      <c r="AK39" s="13"/>
-      <c r="AL39" s="13"/>
-      <c r="AM39" s="13"/>
-      <c r="AN39" s="13"/>
-      <c r="AO39" s="13"/>
-      <c r="AP39" s="13"/>
-      <c r="AQ39" s="13"/>
-      <c r="AR39" s="13"/>
+    <row r="39" spans="1:44" ht="3.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="14"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="15"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="15"/>
+      <c r="O39" s="15"/>
+      <c r="P39" s="15"/>
+      <c r="Q39" s="15"/>
+      <c r="R39" s="15"/>
+      <c r="S39" s="15"/>
+      <c r="T39" s="15"/>
+      <c r="U39" s="15"/>
+      <c r="V39" s="15"/>
+      <c r="W39" s="15"/>
+      <c r="X39" s="15"/>
+      <c r="Y39" s="15"/>
+      <c r="Z39" s="15"/>
+      <c r="AA39" s="15"/>
+      <c r="AB39" s="15"/>
+      <c r="AC39" s="15"/>
+      <c r="AD39" s="15"/>
+      <c r="AE39" s="15"/>
+      <c r="AF39" s="15"/>
+      <c r="AG39" s="15"/>
+      <c r="AH39" s="15"/>
+      <c r="AI39" s="15"/>
+      <c r="AJ39" s="15"/>
+      <c r="AK39" s="15"/>
+      <c r="AL39" s="15"/>
+      <c r="AM39" s="15"/>
+      <c r="AN39" s="15"/>
+      <c r="AO39" s="15"/>
+      <c r="AP39" s="15"/>
+      <c r="AQ39" s="15"/>
+      <c r="AR39" s="15"/>
     </row>
-    <row r="40" spans="1:44" ht="18" customHeight="1">
-      <c r="A40" s="14" t="s">
+    <row r="40" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="13"/>
-      <c r="L40" s="13"/>
-      <c r="M40" s="13"/>
-      <c r="N40" s="13"/>
-      <c r="O40" s="13"/>
-      <c r="P40" s="13"/>
-      <c r="Q40" s="13"/>
-      <c r="R40" s="13"/>
-      <c r="S40" s="13"/>
-      <c r="T40" s="13"/>
-      <c r="U40" s="13"/>
-      <c r="V40" s="13"/>
-      <c r="W40" s="13"/>
-      <c r="X40" s="13"/>
-      <c r="Y40" s="13"/>
-      <c r="Z40" s="13"/>
-      <c r="AA40" s="13"/>
-      <c r="AB40" s="13"/>
-      <c r="AC40" s="13"/>
-      <c r="AD40" s="13"/>
-      <c r="AE40" s="13"/>
-      <c r="AF40" s="13"/>
-      <c r="AG40" s="13"/>
-      <c r="AH40" s="13"/>
-      <c r="AI40" s="13"/>
-      <c r="AJ40" s="13"/>
-      <c r="AK40" s="13"/>
-      <c r="AL40" s="13"/>
-      <c r="AM40" s="13"/>
-      <c r="AN40" s="13"/>
-      <c r="AO40" s="13"/>
-      <c r="AP40" s="13"/>
-      <c r="AQ40" s="13"/>
-      <c r="AR40" s="13"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="15"/>
+      <c r="L40" s="15"/>
+      <c r="M40" s="15"/>
+      <c r="N40" s="15"/>
+      <c r="O40" s="15"/>
+      <c r="P40" s="15"/>
+      <c r="Q40" s="15"/>
+      <c r="R40" s="15"/>
+      <c r="S40" s="15"/>
+      <c r="T40" s="15"/>
+      <c r="U40" s="15"/>
+      <c r="V40" s="15"/>
+      <c r="W40" s="15"/>
+      <c r="X40" s="15"/>
+      <c r="Y40" s="15"/>
+      <c r="Z40" s="15"/>
+      <c r="AA40" s="15"/>
+      <c r="AB40" s="15"/>
+      <c r="AC40" s="15"/>
+      <c r="AD40" s="15"/>
+      <c r="AE40" s="15"/>
+      <c r="AF40" s="15"/>
+      <c r="AG40" s="15"/>
+      <c r="AH40" s="15"/>
+      <c r="AI40" s="15"/>
+      <c r="AJ40" s="15"/>
+      <c r="AK40" s="15"/>
+      <c r="AL40" s="15"/>
+      <c r="AM40" s="15"/>
+      <c r="AN40" s="15"/>
+      <c r="AO40" s="15"/>
+      <c r="AP40" s="15"/>
+      <c r="AQ40" s="15"/>
+      <c r="AR40" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="A1:AR1"/>
-    <mergeCell ref="A2:AR2"/>
-    <mergeCell ref="A3:AR3"/>
-    <mergeCell ref="A4:AR4"/>
-    <mergeCell ref="A5:AR5"/>
     <mergeCell ref="A39:AR39"/>
     <mergeCell ref="A40:AR40"/>
     <mergeCell ref="L6:R6"/>
@@ -5218,9 +5404,16 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="A1:AR1"/>
+    <mergeCell ref="A2:AR2"/>
+    <mergeCell ref="A3:AR3"/>
+    <mergeCell ref="A4:AR4"/>
+    <mergeCell ref="A5:AR5"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/캠핑장.xlsx
+++ b/캠핑장.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\5CLASS-184\Desktop\finalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB3101C3-3B3C-4FD5-88B2-738931C1ED79}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54DF4241-D5BE-453F-B233-38F667D2F854}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27855" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -481,26 +481,26 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3009,325 +3009,325 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="3.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="14"/>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
-      <c r="X1" s="15"/>
-      <c r="Y1" s="15"/>
-      <c r="Z1" s="15"/>
-      <c r="AA1" s="15"/>
-      <c r="AB1" s="15"/>
-      <c r="AC1" s="15"/>
-      <c r="AD1" s="15"/>
-      <c r="AE1" s="15"/>
-      <c r="AF1" s="15"/>
-      <c r="AG1" s="15"/>
-      <c r="AH1" s="15"/>
-      <c r="AI1" s="15"/>
-      <c r="AJ1" s="15"/>
-      <c r="AK1" s="15"/>
-      <c r="AL1" s="15"/>
-      <c r="AM1" s="15"/>
-      <c r="AN1" s="15"/>
-      <c r="AO1" s="15"/>
-      <c r="AP1" s="15"/>
-      <c r="AQ1" s="15"/>
-      <c r="AR1" s="15"/>
+      <c r="A1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
+      <c r="AA1" s="13"/>
+      <c r="AB1" s="13"/>
+      <c r="AC1" s="13"/>
+      <c r="AD1" s="13"/>
+      <c r="AE1" s="13"/>
+      <c r="AF1" s="13"/>
+      <c r="AG1" s="13"/>
+      <c r="AH1" s="13"/>
+      <c r="AI1" s="13"/>
+      <c r="AJ1" s="13"/>
+      <c r="AK1" s="13"/>
+      <c r="AL1" s="13"/>
+      <c r="AM1" s="13"/>
+      <c r="AN1" s="13"/>
+      <c r="AO1" s="13"/>
+      <c r="AP1" s="13"/>
+      <c r="AQ1" s="13"/>
+      <c r="AR1" s="13"/>
     </row>
     <row r="2" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="15"/>
-      <c r="X2" s="15"/>
-      <c r="Y2" s="15"/>
-      <c r="Z2" s="15"/>
-      <c r="AA2" s="15"/>
-      <c r="AB2" s="15"/>
-      <c r="AC2" s="15"/>
-      <c r="AD2" s="15"/>
-      <c r="AE2" s="15"/>
-      <c r="AF2" s="15"/>
-      <c r="AG2" s="15"/>
-      <c r="AH2" s="15"/>
-      <c r="AI2" s="15"/>
-      <c r="AJ2" s="15"/>
-      <c r="AK2" s="15"/>
-      <c r="AL2" s="15"/>
-      <c r="AM2" s="15"/>
-      <c r="AN2" s="15"/>
-      <c r="AO2" s="15"/>
-      <c r="AP2" s="15"/>
-      <c r="AQ2" s="15"/>
-      <c r="AR2" s="15"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="13"/>
+      <c r="AA2" s="13"/>
+      <c r="AB2" s="13"/>
+      <c r="AC2" s="13"/>
+      <c r="AD2" s="13"/>
+      <c r="AE2" s="13"/>
+      <c r="AF2" s="13"/>
+      <c r="AG2" s="13"/>
+      <c r="AH2" s="13"/>
+      <c r="AI2" s="13"/>
+      <c r="AJ2" s="13"/>
+      <c r="AK2" s="13"/>
+      <c r="AL2" s="13"/>
+      <c r="AM2" s="13"/>
+      <c r="AN2" s="13"/>
+      <c r="AO2" s="13"/>
+      <c r="AP2" s="13"/>
+      <c r="AQ2" s="13"/>
+      <c r="AR2" s="13"/>
     </row>
     <row r="3" spans="1:44" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="15"/>
-      <c r="W3" s="15"/>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="15"/>
-      <c r="Z3" s="15"/>
-      <c r="AA3" s="15"/>
-      <c r="AB3" s="15"/>
-      <c r="AC3" s="15"/>
-      <c r="AD3" s="15"/>
-      <c r="AE3" s="15"/>
-      <c r="AF3" s="15"/>
-      <c r="AG3" s="15"/>
-      <c r="AH3" s="15"/>
-      <c r="AI3" s="15"/>
-      <c r="AJ3" s="15"/>
-      <c r="AK3" s="15"/>
-      <c r="AL3" s="15"/>
-      <c r="AM3" s="15"/>
-      <c r="AN3" s="15"/>
-      <c r="AO3" s="15"/>
-      <c r="AP3" s="15"/>
-      <c r="AQ3" s="15"/>
-      <c r="AR3" s="15"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="13"/>
+      <c r="X3" s="13"/>
+      <c r="Y3" s="13"/>
+      <c r="Z3" s="13"/>
+      <c r="AA3" s="13"/>
+      <c r="AB3" s="13"/>
+      <c r="AC3" s="13"/>
+      <c r="AD3" s="13"/>
+      <c r="AE3" s="13"/>
+      <c r="AF3" s="13"/>
+      <c r="AG3" s="13"/>
+      <c r="AH3" s="13"/>
+      <c r="AI3" s="13"/>
+      <c r="AJ3" s="13"/>
+      <c r="AK3" s="13"/>
+      <c r="AL3" s="13"/>
+      <c r="AM3" s="13"/>
+      <c r="AN3" s="13"/>
+      <c r="AO3" s="13"/>
+      <c r="AP3" s="13"/>
+      <c r="AQ3" s="13"/>
+      <c r="AR3" s="13"/>
     </row>
     <row r="4" spans="1:44" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="15"/>
-      <c r="W4" s="15"/>
-      <c r="X4" s="15"/>
-      <c r="Y4" s="15"/>
-      <c r="Z4" s="15"/>
-      <c r="AA4" s="15"/>
-      <c r="AB4" s="15"/>
-      <c r="AC4" s="15"/>
-      <c r="AD4" s="15"/>
-      <c r="AE4" s="15"/>
-      <c r="AF4" s="15"/>
-      <c r="AG4" s="15"/>
-      <c r="AH4" s="15"/>
-      <c r="AI4" s="15"/>
-      <c r="AJ4" s="15"/>
-      <c r="AK4" s="15"/>
-      <c r="AL4" s="15"/>
-      <c r="AM4" s="15"/>
-      <c r="AN4" s="15"/>
-      <c r="AO4" s="15"/>
-      <c r="AP4" s="15"/>
-      <c r="AQ4" s="15"/>
-      <c r="AR4" s="15"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="13"/>
+      <c r="Z4" s="13"/>
+      <c r="AA4" s="13"/>
+      <c r="AB4" s="13"/>
+      <c r="AC4" s="13"/>
+      <c r="AD4" s="13"/>
+      <c r="AE4" s="13"/>
+      <c r="AF4" s="13"/>
+      <c r="AG4" s="13"/>
+      <c r="AH4" s="13"/>
+      <c r="AI4" s="13"/>
+      <c r="AJ4" s="13"/>
+      <c r="AK4" s="13"/>
+      <c r="AL4" s="13"/>
+      <c r="AM4" s="13"/>
+      <c r="AN4" s="13"/>
+      <c r="AO4" s="13"/>
+      <c r="AP4" s="13"/>
+      <c r="AQ4" s="13"/>
+      <c r="AR4" s="13"/>
     </row>
     <row r="5" spans="1:44" ht="3.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="14"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
-      <c r="V5" s="15"/>
-      <c r="W5" s="15"/>
-      <c r="X5" s="15"/>
-      <c r="Y5" s="15"/>
-      <c r="Z5" s="15"/>
-      <c r="AA5" s="15"/>
-      <c r="AB5" s="15"/>
-      <c r="AC5" s="15"/>
-      <c r="AD5" s="15"/>
-      <c r="AE5" s="15"/>
-      <c r="AF5" s="15"/>
-      <c r="AG5" s="15"/>
-      <c r="AH5" s="15"/>
-      <c r="AI5" s="15"/>
-      <c r="AJ5" s="15"/>
-      <c r="AK5" s="15"/>
-      <c r="AL5" s="15"/>
-      <c r="AM5" s="15"/>
-      <c r="AN5" s="15"/>
-      <c r="AO5" s="15"/>
-      <c r="AP5" s="15"/>
-      <c r="AQ5" s="15"/>
-      <c r="AR5" s="15"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="13"/>
+      <c r="Z5" s="13"/>
+      <c r="AA5" s="13"/>
+      <c r="AB5" s="13"/>
+      <c r="AC5" s="13"/>
+      <c r="AD5" s="13"/>
+      <c r="AE5" s="13"/>
+      <c r="AF5" s="13"/>
+      <c r="AG5" s="13"/>
+      <c r="AH5" s="13"/>
+      <c r="AI5" s="13"/>
+      <c r="AJ5" s="13"/>
+      <c r="AK5" s="13"/>
+      <c r="AL5" s="13"/>
+      <c r="AM5" s="13"/>
+      <c r="AN5" s="13"/>
+      <c r="AO5" s="13"/>
+      <c r="AP5" s="13"/>
+      <c r="AQ5" s="13"/>
+      <c r="AR5" s="13"/>
     </row>
     <row r="6" spans="1:44" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="18"/>
-      <c r="B6" s="12" t="s">
+      <c r="A6" s="17"/>
+      <c r="B6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="J6" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12" t="s">
+      <c r="K6" s="15"/>
+      <c r="L6" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12" t="s">
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="12" t="s">
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="AA6" s="12"/>
-      <c r="AB6" s="12"/>
-      <c r="AC6" s="12"/>
-      <c r="AD6" s="12"/>
-      <c r="AE6" s="12"/>
-      <c r="AF6" s="12"/>
-      <c r="AG6" s="12" t="s">
+      <c r="AA6" s="15"/>
+      <c r="AB6" s="15"/>
+      <c r="AC6" s="15"/>
+      <c r="AD6" s="15"/>
+      <c r="AE6" s="15"/>
+      <c r="AF6" s="15"/>
+      <c r="AG6" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="AH6" s="12"/>
-      <c r="AI6" s="12"/>
-      <c r="AJ6" s="12"/>
-      <c r="AK6" s="12"/>
-      <c r="AL6" s="12"/>
-      <c r="AM6" s="12"/>
-      <c r="AN6" s="12" t="s">
+      <c r="AH6" s="15"/>
+      <c r="AI6" s="15"/>
+      <c r="AJ6" s="15"/>
+      <c r="AK6" s="15"/>
+      <c r="AL6" s="15"/>
+      <c r="AM6" s="15"/>
+      <c r="AN6" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="AO6" s="12"/>
-      <c r="AP6" s="12"/>
-      <c r="AQ6" s="12"/>
-      <c r="AR6" s="12"/>
+      <c r="AO6" s="15"/>
+      <c r="AP6" s="15"/>
+      <c r="AQ6" s="15"/>
+      <c r="AR6" s="15"/>
     </row>
     <row r="7" spans="1:44" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
       <c r="J7" s="1">
         <v>3</v>
       </c>
@@ -5293,101 +5293,107 @@
       <c r="AR38" s="5"/>
     </row>
     <row r="39" spans="1:44" ht="3.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="14"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="15"/>
-      <c r="L39" s="15"/>
-      <c r="M39" s="15"/>
-      <c r="N39" s="15"/>
-      <c r="O39" s="15"/>
-      <c r="P39" s="15"/>
-      <c r="Q39" s="15"/>
-      <c r="R39" s="15"/>
-      <c r="S39" s="15"/>
-      <c r="T39" s="15"/>
-      <c r="U39" s="15"/>
-      <c r="V39" s="15"/>
-      <c r="W39" s="15"/>
-      <c r="X39" s="15"/>
-      <c r="Y39" s="15"/>
-      <c r="Z39" s="15"/>
-      <c r="AA39" s="15"/>
-      <c r="AB39" s="15"/>
-      <c r="AC39" s="15"/>
-      <c r="AD39" s="15"/>
-      <c r="AE39" s="15"/>
-      <c r="AF39" s="15"/>
-      <c r="AG39" s="15"/>
-      <c r="AH39" s="15"/>
-      <c r="AI39" s="15"/>
-      <c r="AJ39" s="15"/>
-      <c r="AK39" s="15"/>
-      <c r="AL39" s="15"/>
-      <c r="AM39" s="15"/>
-      <c r="AN39" s="15"/>
-      <c r="AO39" s="15"/>
-      <c r="AP39" s="15"/>
-      <c r="AQ39" s="15"/>
-      <c r="AR39" s="15"/>
+      <c r="A39" s="12"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="13"/>
+      <c r="N39" s="13"/>
+      <c r="O39" s="13"/>
+      <c r="P39" s="13"/>
+      <c r="Q39" s="13"/>
+      <c r="R39" s="13"/>
+      <c r="S39" s="13"/>
+      <c r="T39" s="13"/>
+      <c r="U39" s="13"/>
+      <c r="V39" s="13"/>
+      <c r="W39" s="13"/>
+      <c r="X39" s="13"/>
+      <c r="Y39" s="13"/>
+      <c r="Z39" s="13"/>
+      <c r="AA39" s="13"/>
+      <c r="AB39" s="13"/>
+      <c r="AC39" s="13"/>
+      <c r="AD39" s="13"/>
+      <c r="AE39" s="13"/>
+      <c r="AF39" s="13"/>
+      <c r="AG39" s="13"/>
+      <c r="AH39" s="13"/>
+      <c r="AI39" s="13"/>
+      <c r="AJ39" s="13"/>
+      <c r="AK39" s="13"/>
+      <c r="AL39" s="13"/>
+      <c r="AM39" s="13"/>
+      <c r="AN39" s="13"/>
+      <c r="AO39" s="13"/>
+      <c r="AP39" s="13"/>
+      <c r="AQ39" s="13"/>
+      <c r="AR39" s="13"/>
     </row>
     <row r="40" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="17" t="s">
+      <c r="A40" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="15"/>
-      <c r="K40" s="15"/>
-      <c r="L40" s="15"/>
-      <c r="M40" s="15"/>
-      <c r="N40" s="15"/>
-      <c r="O40" s="15"/>
-      <c r="P40" s="15"/>
-      <c r="Q40" s="15"/>
-      <c r="R40" s="15"/>
-      <c r="S40" s="15"/>
-      <c r="T40" s="15"/>
-      <c r="U40" s="15"/>
-      <c r="V40" s="15"/>
-      <c r="W40" s="15"/>
-      <c r="X40" s="15"/>
-      <c r="Y40" s="15"/>
-      <c r="Z40" s="15"/>
-      <c r="AA40" s="15"/>
-      <c r="AB40" s="15"/>
-      <c r="AC40" s="15"/>
-      <c r="AD40" s="15"/>
-      <c r="AE40" s="15"/>
-      <c r="AF40" s="15"/>
-      <c r="AG40" s="15"/>
-      <c r="AH40" s="15"/>
-      <c r="AI40" s="15"/>
-      <c r="AJ40" s="15"/>
-      <c r="AK40" s="15"/>
-      <c r="AL40" s="15"/>
-      <c r="AM40" s="15"/>
-      <c r="AN40" s="15"/>
-      <c r="AO40" s="15"/>
-      <c r="AP40" s="15"/>
-      <c r="AQ40" s="15"/>
-      <c r="AR40" s="15"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="13"/>
+      <c r="N40" s="13"/>
+      <c r="O40" s="13"/>
+      <c r="P40" s="13"/>
+      <c r="Q40" s="13"/>
+      <c r="R40" s="13"/>
+      <c r="S40" s="13"/>
+      <c r="T40" s="13"/>
+      <c r="U40" s="13"/>
+      <c r="V40" s="13"/>
+      <c r="W40" s="13"/>
+      <c r="X40" s="13"/>
+      <c r="Y40" s="13"/>
+      <c r="Z40" s="13"/>
+      <c r="AA40" s="13"/>
+      <c r="AB40" s="13"/>
+      <c r="AC40" s="13"/>
+      <c r="AD40" s="13"/>
+      <c r="AE40" s="13"/>
+      <c r="AF40" s="13"/>
+      <c r="AG40" s="13"/>
+      <c r="AH40" s="13"/>
+      <c r="AI40" s="13"/>
+      <c r="AJ40" s="13"/>
+      <c r="AK40" s="13"/>
+      <c r="AL40" s="13"/>
+      <c r="AM40" s="13"/>
+      <c r="AN40" s="13"/>
+      <c r="AO40" s="13"/>
+      <c r="AP40" s="13"/>
+      <c r="AQ40" s="13"/>
+      <c r="AR40" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="A1:AR1"/>
+    <mergeCell ref="A2:AR2"/>
+    <mergeCell ref="A3:AR3"/>
+    <mergeCell ref="A4:AR4"/>
+    <mergeCell ref="A5:AR5"/>
     <mergeCell ref="A39:AR39"/>
     <mergeCell ref="A40:AR40"/>
     <mergeCell ref="L6:R6"/>
@@ -5404,12 +5410,6 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="A1:AR1"/>
-    <mergeCell ref="A2:AR2"/>
-    <mergeCell ref="A3:AR3"/>
-    <mergeCell ref="A4:AR4"/>
-    <mergeCell ref="A5:AR5"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/캠핑장.xlsx
+++ b/캠핑장.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27855" windowHeight="12975"/>
@@ -271,15 +271,15 @@
     <t>2018년 9월 2일</t>
   </si>
   <si>
-    <t>작성자 : 권석현 Pull request</t>
+    <t>작성자 : 권석현   ,  이용욱</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
@@ -475,33 +475,61 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2788,14 +2816,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2803,7 +2831,7 @@
       <selection pane="bottomLeft" activeCell="A3" sqref="A3:AR3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="35.140625" customWidth="1"/>
@@ -2816,326 +2844,326 @@
     <col min="10" max="44" width="3.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" ht="3.95" customHeight="1">
-      <c r="A1" s="12"/>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="13"/>
-      <c r="Z1" s="13"/>
-      <c r="AA1" s="13"/>
-      <c r="AB1" s="13"/>
-      <c r="AC1" s="13"/>
-      <c r="AD1" s="13"/>
-      <c r="AE1" s="13"/>
-      <c r="AF1" s="13"/>
-      <c r="AG1" s="13"/>
-      <c r="AH1" s="13"/>
-      <c r="AI1" s="13"/>
-      <c r="AJ1" s="13"/>
-      <c r="AK1" s="13"/>
-      <c r="AL1" s="13"/>
-      <c r="AM1" s="13"/>
-      <c r="AN1" s="13"/>
-      <c r="AO1" s="13"/>
-      <c r="AP1" s="13"/>
-      <c r="AQ1" s="13"/>
-      <c r="AR1" s="13"/>
+    <row r="1" spans="1:44" ht="3.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="15"/>
+      <c r="AD1" s="15"/>
+      <c r="AE1" s="15"/>
+      <c r="AF1" s="15"/>
+      <c r="AG1" s="15"/>
+      <c r="AH1" s="15"/>
+      <c r="AI1" s="15"/>
+      <c r="AJ1" s="15"/>
+      <c r="AK1" s="15"/>
+      <c r="AL1" s="15"/>
+      <c r="AM1" s="15"/>
+      <c r="AN1" s="15"/>
+      <c r="AO1" s="15"/>
+      <c r="AP1" s="15"/>
+      <c r="AQ1" s="15"/>
+      <c r="AR1" s="15"/>
     </row>
-    <row r="2" spans="1:44" ht="18" customHeight="1">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
-      <c r="X2" s="13"/>
-      <c r="Y2" s="13"/>
-      <c r="Z2" s="13"/>
-      <c r="AA2" s="13"/>
-      <c r="AB2" s="13"/>
-      <c r="AC2" s="13"/>
-      <c r="AD2" s="13"/>
-      <c r="AE2" s="13"/>
-      <c r="AF2" s="13"/>
-      <c r="AG2" s="13"/>
-      <c r="AH2" s="13"/>
-      <c r="AI2" s="13"/>
-      <c r="AJ2" s="13"/>
-      <c r="AK2" s="13"/>
-      <c r="AL2" s="13"/>
-      <c r="AM2" s="13"/>
-      <c r="AN2" s="13"/>
-      <c r="AO2" s="13"/>
-      <c r="AP2" s="13"/>
-      <c r="AQ2" s="13"/>
-      <c r="AR2" s="13"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
+      <c r="X2" s="15"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="15"/>
+      <c r="AA2" s="15"/>
+      <c r="AB2" s="15"/>
+      <c r="AC2" s="15"/>
+      <c r="AD2" s="15"/>
+      <c r="AE2" s="15"/>
+      <c r="AF2" s="15"/>
+      <c r="AG2" s="15"/>
+      <c r="AH2" s="15"/>
+      <c r="AI2" s="15"/>
+      <c r="AJ2" s="15"/>
+      <c r="AK2" s="15"/>
+      <c r="AL2" s="15"/>
+      <c r="AM2" s="15"/>
+      <c r="AN2" s="15"/>
+      <c r="AO2" s="15"/>
+      <c r="AP2" s="15"/>
+      <c r="AQ2" s="15"/>
+      <c r="AR2" s="15"/>
     </row>
-    <row r="3" spans="1:44" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:44" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13"/>
-      <c r="V3" s="13"/>
-      <c r="W3" s="13"/>
-      <c r="X3" s="13"/>
-      <c r="Y3" s="13"/>
-      <c r="Z3" s="13"/>
-      <c r="AA3" s="13"/>
-      <c r="AB3" s="13"/>
-      <c r="AC3" s="13"/>
-      <c r="AD3" s="13"/>
-      <c r="AE3" s="13"/>
-      <c r="AF3" s="13"/>
-      <c r="AG3" s="13"/>
-      <c r="AH3" s="13"/>
-      <c r="AI3" s="13"/>
-      <c r="AJ3" s="13"/>
-      <c r="AK3" s="13"/>
-      <c r="AL3" s="13"/>
-      <c r="AM3" s="13"/>
-      <c r="AN3" s="13"/>
-      <c r="AO3" s="13"/>
-      <c r="AP3" s="13"/>
-      <c r="AQ3" s="13"/>
-      <c r="AR3" s="13"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="15"/>
+      <c r="X3" s="15"/>
+      <c r="Y3" s="15"/>
+      <c r="Z3" s="15"/>
+      <c r="AA3" s="15"/>
+      <c r="AB3" s="15"/>
+      <c r="AC3" s="15"/>
+      <c r="AD3" s="15"/>
+      <c r="AE3" s="15"/>
+      <c r="AF3" s="15"/>
+      <c r="AG3" s="15"/>
+      <c r="AH3" s="15"/>
+      <c r="AI3" s="15"/>
+      <c r="AJ3" s="15"/>
+      <c r="AK3" s="15"/>
+      <c r="AL3" s="15"/>
+      <c r="AM3" s="15"/>
+      <c r="AN3" s="15"/>
+      <c r="AO3" s="15"/>
+      <c r="AP3" s="15"/>
+      <c r="AQ3" s="15"/>
+      <c r="AR3" s="15"/>
     </row>
-    <row r="4" spans="1:44" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:44" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="13"/>
-      <c r="Y4" s="13"/>
-      <c r="Z4" s="13"/>
-      <c r="AA4" s="13"/>
-      <c r="AB4" s="13"/>
-      <c r="AC4" s="13"/>
-      <c r="AD4" s="13"/>
-      <c r="AE4" s="13"/>
-      <c r="AF4" s="13"/>
-      <c r="AG4" s="13"/>
-      <c r="AH4" s="13"/>
-      <c r="AI4" s="13"/>
-      <c r="AJ4" s="13"/>
-      <c r="AK4" s="13"/>
-      <c r="AL4" s="13"/>
-      <c r="AM4" s="13"/>
-      <c r="AN4" s="13"/>
-      <c r="AO4" s="13"/>
-      <c r="AP4" s="13"/>
-      <c r="AQ4" s="13"/>
-      <c r="AR4" s="13"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="15"/>
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="15"/>
+      <c r="AA4" s="15"/>
+      <c r="AB4" s="15"/>
+      <c r="AC4" s="15"/>
+      <c r="AD4" s="15"/>
+      <c r="AE4" s="15"/>
+      <c r="AF4" s="15"/>
+      <c r="AG4" s="15"/>
+      <c r="AH4" s="15"/>
+      <c r="AI4" s="15"/>
+      <c r="AJ4" s="15"/>
+      <c r="AK4" s="15"/>
+      <c r="AL4" s="15"/>
+      <c r="AM4" s="15"/>
+      <c r="AN4" s="15"/>
+      <c r="AO4" s="15"/>
+      <c r="AP4" s="15"/>
+      <c r="AQ4" s="15"/>
+      <c r="AR4" s="15"/>
     </row>
-    <row r="5" spans="1:44" ht="3.95" customHeight="1">
-      <c r="A5" s="12"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13"/>
-      <c r="W5" s="13"/>
-      <c r="X5" s="13"/>
-      <c r="Y5" s="13"/>
-      <c r="Z5" s="13"/>
-      <c r="AA5" s="13"/>
-      <c r="AB5" s="13"/>
-      <c r="AC5" s="13"/>
-      <c r="AD5" s="13"/>
-      <c r="AE5" s="13"/>
-      <c r="AF5" s="13"/>
-      <c r="AG5" s="13"/>
-      <c r="AH5" s="13"/>
-      <c r="AI5" s="13"/>
-      <c r="AJ5" s="13"/>
-      <c r="AK5" s="13"/>
-      <c r="AL5" s="13"/>
-      <c r="AM5" s="13"/>
-      <c r="AN5" s="13"/>
-      <c r="AO5" s="13"/>
-      <c r="AP5" s="13"/>
-      <c r="AQ5" s="13"/>
-      <c r="AR5" s="13"/>
+    <row r="5" spans="1:44" ht="3.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="14"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="15"/>
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="15"/>
+      <c r="AA5" s="15"/>
+      <c r="AB5" s="15"/>
+      <c r="AC5" s="15"/>
+      <c r="AD5" s="15"/>
+      <c r="AE5" s="15"/>
+      <c r="AF5" s="15"/>
+      <c r="AG5" s="15"/>
+      <c r="AH5" s="15"/>
+      <c r="AI5" s="15"/>
+      <c r="AJ5" s="15"/>
+      <c r="AK5" s="15"/>
+      <c r="AL5" s="15"/>
+      <c r="AM5" s="15"/>
+      <c r="AN5" s="15"/>
+      <c r="AO5" s="15"/>
+      <c r="AP5" s="15"/>
+      <c r="AQ5" s="15"/>
+      <c r="AR5" s="15"/>
     </row>
-    <row r="6" spans="1:44" ht="17.100000000000001" customHeight="1">
-      <c r="A6" s="17"/>
-      <c r="B6" s="15" t="s">
+    <row r="6" spans="1:44" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="18"/>
+      <c r="B6" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="I6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="J6" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15" t="s">
+      <c r="K6" s="12"/>
+      <c r="L6" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15" t="s">
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="T6" s="15"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="15"/>
-      <c r="W6" s="15"/>
-      <c r="X6" s="15"/>
-      <c r="Y6" s="15"/>
-      <c r="Z6" s="15" t="s">
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="AA6" s="15"/>
-      <c r="AB6" s="15"/>
-      <c r="AC6" s="15"/>
-      <c r="AD6" s="15"/>
-      <c r="AE6" s="15"/>
-      <c r="AF6" s="15"/>
-      <c r="AG6" s="15" t="s">
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="12"/>
+      <c r="AE6" s="12"/>
+      <c r="AF6" s="12"/>
+      <c r="AG6" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="AH6" s="15"/>
-      <c r="AI6" s="15"/>
-      <c r="AJ6" s="15"/>
-      <c r="AK6" s="15"/>
-      <c r="AL6" s="15"/>
-      <c r="AM6" s="15"/>
-      <c r="AN6" s="15" t="s">
+      <c r="AH6" s="12"/>
+      <c r="AI6" s="12"/>
+      <c r="AJ6" s="12"/>
+      <c r="AK6" s="12"/>
+      <c r="AL6" s="12"/>
+      <c r="AM6" s="12"/>
+      <c r="AN6" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="AO6" s="15"/>
-      <c r="AP6" s="15"/>
-      <c r="AQ6" s="15"/>
-      <c r="AR6" s="15"/>
+      <c r="AO6" s="12"/>
+      <c r="AP6" s="12"/>
+      <c r="AQ6" s="12"/>
+      <c r="AR6" s="12"/>
     </row>
-    <row r="7" spans="1:44" ht="17.100000000000001" customHeight="1">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
+    <row r="7" spans="1:44" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
       <c r="J7" s="1">
         <v>3</v>
       </c>
@@ -3242,7 +3270,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:44" ht="18" customHeight="1">
+    <row r="8" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -3300,7 +3328,7 @@
       <c r="AQ8" s="5"/>
       <c r="AR8" s="5"/>
     </row>
-    <row r="9" spans="1:44" ht="18" customHeight="1">
+    <row r="9" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>2</v>
       </c>
@@ -3360,7 +3388,7 @@
       <c r="AQ9" s="10"/>
       <c r="AR9" s="10"/>
     </row>
-    <row r="10" spans="1:44" ht="18" customHeight="1">
+    <row r="10" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>3</v>
       </c>
@@ -3420,7 +3448,7 @@
       <c r="AQ10" s="5"/>
       <c r="AR10" s="5"/>
     </row>
-    <row r="11" spans="1:44" ht="18" customHeight="1">
+    <row r="11" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>4</v>
       </c>
@@ -3480,7 +3508,7 @@
       <c r="AQ11" s="10"/>
       <c r="AR11" s="10"/>
     </row>
-    <row r="12" spans="1:44" ht="18" customHeight="1">
+    <row r="12" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>5</v>
       </c>
@@ -3540,7 +3568,7 @@
       <c r="AQ12" s="5"/>
       <c r="AR12" s="5"/>
     </row>
-    <row r="13" spans="1:44" ht="18" customHeight="1">
+    <row r="13" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>6</v>
       </c>
@@ -3600,7 +3628,7 @@
       <c r="AQ13" s="10"/>
       <c r="AR13" s="10"/>
     </row>
-    <row r="14" spans="1:44" ht="18" customHeight="1">
+    <row r="14" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>7</v>
       </c>
@@ -3660,7 +3688,7 @@
       <c r="AQ14" s="5"/>
       <c r="AR14" s="5"/>
     </row>
-    <row r="15" spans="1:44" ht="18" customHeight="1">
+    <row r="15" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>8</v>
       </c>
@@ -3720,7 +3748,7 @@
       <c r="AQ15" s="10"/>
       <c r="AR15" s="10"/>
     </row>
-    <row r="16" spans="1:44" ht="18" customHeight="1">
+    <row r="16" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>9</v>
       </c>
@@ -3780,7 +3808,7 @@
       <c r="AQ16" s="5"/>
       <c r="AR16" s="5"/>
     </row>
-    <row r="17" spans="1:44" ht="18" customHeight="1">
+    <row r="17" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>10</v>
       </c>
@@ -3840,7 +3868,7 @@
       <c r="AQ17" s="10"/>
       <c r="AR17" s="10"/>
     </row>
-    <row r="18" spans="1:44" ht="18" customHeight="1">
+    <row r="18" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>11</v>
       </c>
@@ -3900,7 +3928,7 @@
       <c r="AQ18" s="5"/>
       <c r="AR18" s="5"/>
     </row>
-    <row r="19" spans="1:44" ht="18" customHeight="1">
+    <row r="19" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>12</v>
       </c>
@@ -3960,7 +3988,7 @@
       <c r="AQ19" s="10"/>
       <c r="AR19" s="10"/>
     </row>
-    <row r="20" spans="1:44" ht="18" customHeight="1">
+    <row r="20" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>13</v>
       </c>
@@ -4020,7 +4048,7 @@
       <c r="AQ20" s="5"/>
       <c r="AR20" s="5"/>
     </row>
-    <row r="21" spans="1:44" ht="18" customHeight="1">
+    <row r="21" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <v>14</v>
       </c>
@@ -4080,7 +4108,7 @@
       <c r="AQ21" s="10"/>
       <c r="AR21" s="10"/>
     </row>
-    <row r="22" spans="1:44" ht="18" customHeight="1">
+    <row r="22" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>15</v>
       </c>
@@ -4140,7 +4168,7 @@
       <c r="AQ22" s="5"/>
       <c r="AR22" s="5"/>
     </row>
-    <row r="23" spans="1:44" ht="18" customHeight="1">
+    <row r="23" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <v>16</v>
       </c>
@@ -4200,7 +4228,7 @@
       <c r="AQ23" s="10"/>
       <c r="AR23" s="10"/>
     </row>
-    <row r="24" spans="1:44" ht="18" customHeight="1">
+    <row r="24" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>17</v>
       </c>
@@ -4260,7 +4288,7 @@
       <c r="AQ24" s="5"/>
       <c r="AR24" s="5"/>
     </row>
-    <row r="25" spans="1:44" ht="18" customHeight="1">
+    <row r="25" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
         <v>18</v>
       </c>
@@ -4320,7 +4348,7 @@
       <c r="AQ25" s="10"/>
       <c r="AR25" s="10"/>
     </row>
-    <row r="26" spans="1:44" ht="18" customHeight="1">
+    <row r="26" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>19</v>
       </c>
@@ -4380,7 +4408,7 @@
       <c r="AQ26" s="5"/>
       <c r="AR26" s="5"/>
     </row>
-    <row r="27" spans="1:44" ht="18" customHeight="1">
+    <row r="27" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
         <v>20</v>
       </c>
@@ -4440,7 +4468,7 @@
       <c r="AQ27" s="10"/>
       <c r="AR27" s="10"/>
     </row>
-    <row r="28" spans="1:44" ht="18" customHeight="1">
+    <row r="28" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>21</v>
       </c>
@@ -4500,7 +4528,7 @@
       <c r="AQ28" s="5"/>
       <c r="AR28" s="5"/>
     </row>
-    <row r="29" spans="1:44" ht="18" customHeight="1">
+    <row r="29" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
         <v>22</v>
       </c>
@@ -4560,7 +4588,7 @@
       <c r="AQ29" s="10"/>
       <c r="AR29" s="10"/>
     </row>
-    <row r="30" spans="1:44" ht="18" customHeight="1">
+    <row r="30" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>23</v>
       </c>
@@ -4620,7 +4648,7 @@
       <c r="AQ30" s="5"/>
       <c r="AR30" s="5"/>
     </row>
-    <row r="31" spans="1:44" ht="18" customHeight="1">
+    <row r="31" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
         <v>24</v>
       </c>
@@ -4680,7 +4708,7 @@
       <c r="AQ31" s="10"/>
       <c r="AR31" s="10"/>
     </row>
-    <row r="32" spans="1:44" ht="18" customHeight="1">
+    <row r="32" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>25</v>
       </c>
@@ -4740,7 +4768,7 @@
       <c r="AQ32" s="5"/>
       <c r="AR32" s="5"/>
     </row>
-    <row r="33" spans="1:44" ht="18" customHeight="1">
+    <row r="33" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="7">
         <v>26</v>
       </c>
@@ -4800,7 +4828,7 @@
       <c r="AQ33" s="10"/>
       <c r="AR33" s="10"/>
     </row>
-    <row r="34" spans="1:44" ht="18" customHeight="1">
+    <row r="34" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>27</v>
       </c>
@@ -4860,7 +4888,7 @@
       <c r="AQ34" s="5"/>
       <c r="AR34" s="5"/>
     </row>
-    <row r="35" spans="1:44" ht="18" customHeight="1">
+    <row r="35" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="7">
         <v>28</v>
       </c>
@@ -4920,7 +4948,7 @@
       <c r="AQ35" s="10"/>
       <c r="AR35" s="10"/>
     </row>
-    <row r="36" spans="1:44" ht="18" customHeight="1">
+    <row r="36" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>29</v>
       </c>
@@ -4980,7 +5008,7 @@
       <c r="AQ36" s="5"/>
       <c r="AR36" s="5"/>
     </row>
-    <row r="37" spans="1:44" ht="18" customHeight="1">
+    <row r="37" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="7">
         <v>30</v>
       </c>
@@ -5040,7 +5068,7 @@
       <c r="AQ37" s="10"/>
       <c r="AR37" s="10"/>
     </row>
-    <row r="38" spans="1:44" ht="18" customHeight="1">
+    <row r="38" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>31</v>
       </c>
@@ -5100,108 +5128,102 @@
       <c r="AQ38" s="5"/>
       <c r="AR38" s="5"/>
     </row>
-    <row r="39" spans="1:44" ht="3.95" customHeight="1">
-      <c r="A39" s="12"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="13"/>
-      <c r="L39" s="13"/>
-      <c r="M39" s="13"/>
-      <c r="N39" s="13"/>
-      <c r="O39" s="13"/>
-      <c r="P39" s="13"/>
-      <c r="Q39" s="13"/>
-      <c r="R39" s="13"/>
-      <c r="S39" s="13"/>
-      <c r="T39" s="13"/>
-      <c r="U39" s="13"/>
-      <c r="V39" s="13"/>
-      <c r="W39" s="13"/>
-      <c r="X39" s="13"/>
-      <c r="Y39" s="13"/>
-      <c r="Z39" s="13"/>
-      <c r="AA39" s="13"/>
-      <c r="AB39" s="13"/>
-      <c r="AC39" s="13"/>
-      <c r="AD39" s="13"/>
-      <c r="AE39" s="13"/>
-      <c r="AF39" s="13"/>
-      <c r="AG39" s="13"/>
-      <c r="AH39" s="13"/>
-      <c r="AI39" s="13"/>
-      <c r="AJ39" s="13"/>
-      <c r="AK39" s="13"/>
-      <c r="AL39" s="13"/>
-      <c r="AM39" s="13"/>
-      <c r="AN39" s="13"/>
-      <c r="AO39" s="13"/>
-      <c r="AP39" s="13"/>
-      <c r="AQ39" s="13"/>
-      <c r="AR39" s="13"/>
+    <row r="39" spans="1:44" ht="3.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="14"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="15"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="15"/>
+      <c r="O39" s="15"/>
+      <c r="P39" s="15"/>
+      <c r="Q39" s="15"/>
+      <c r="R39" s="15"/>
+      <c r="S39" s="15"/>
+      <c r="T39" s="15"/>
+      <c r="U39" s="15"/>
+      <c r="V39" s="15"/>
+      <c r="W39" s="15"/>
+      <c r="X39" s="15"/>
+      <c r="Y39" s="15"/>
+      <c r="Z39" s="15"/>
+      <c r="AA39" s="15"/>
+      <c r="AB39" s="15"/>
+      <c r="AC39" s="15"/>
+      <c r="AD39" s="15"/>
+      <c r="AE39" s="15"/>
+      <c r="AF39" s="15"/>
+      <c r="AG39" s="15"/>
+      <c r="AH39" s="15"/>
+      <c r="AI39" s="15"/>
+      <c r="AJ39" s="15"/>
+      <c r="AK39" s="15"/>
+      <c r="AL39" s="15"/>
+      <c r="AM39" s="15"/>
+      <c r="AN39" s="15"/>
+      <c r="AO39" s="15"/>
+      <c r="AP39" s="15"/>
+      <c r="AQ39" s="15"/>
+      <c r="AR39" s="15"/>
     </row>
-    <row r="40" spans="1:44" ht="18" customHeight="1">
-      <c r="A40" s="14" t="s">
+    <row r="40" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="13"/>
-      <c r="L40" s="13"/>
-      <c r="M40" s="13"/>
-      <c r="N40" s="13"/>
-      <c r="O40" s="13"/>
-      <c r="P40" s="13"/>
-      <c r="Q40" s="13"/>
-      <c r="R40" s="13"/>
-      <c r="S40" s="13"/>
-      <c r="T40" s="13"/>
-      <c r="U40" s="13"/>
-      <c r="V40" s="13"/>
-      <c r="W40" s="13"/>
-      <c r="X40" s="13"/>
-      <c r="Y40" s="13"/>
-      <c r="Z40" s="13"/>
-      <c r="AA40" s="13"/>
-      <c r="AB40" s="13"/>
-      <c r="AC40" s="13"/>
-      <c r="AD40" s="13"/>
-      <c r="AE40" s="13"/>
-      <c r="AF40" s="13"/>
-      <c r="AG40" s="13"/>
-      <c r="AH40" s="13"/>
-      <c r="AI40" s="13"/>
-      <c r="AJ40" s="13"/>
-      <c r="AK40" s="13"/>
-      <c r="AL40" s="13"/>
-      <c r="AM40" s="13"/>
-      <c r="AN40" s="13"/>
-      <c r="AO40" s="13"/>
-      <c r="AP40" s="13"/>
-      <c r="AQ40" s="13"/>
-      <c r="AR40" s="13"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="15"/>
+      <c r="L40" s="15"/>
+      <c r="M40" s="15"/>
+      <c r="N40" s="15"/>
+      <c r="O40" s="15"/>
+      <c r="P40" s="15"/>
+      <c r="Q40" s="15"/>
+      <c r="R40" s="15"/>
+      <c r="S40" s="15"/>
+      <c r="T40" s="15"/>
+      <c r="U40" s="15"/>
+      <c r="V40" s="15"/>
+      <c r="W40" s="15"/>
+      <c r="X40" s="15"/>
+      <c r="Y40" s="15"/>
+      <c r="Z40" s="15"/>
+      <c r="AA40" s="15"/>
+      <c r="AB40" s="15"/>
+      <c r="AC40" s="15"/>
+      <c r="AD40" s="15"/>
+      <c r="AE40" s="15"/>
+      <c r="AF40" s="15"/>
+      <c r="AG40" s="15"/>
+      <c r="AH40" s="15"/>
+      <c r="AI40" s="15"/>
+      <c r="AJ40" s="15"/>
+      <c r="AK40" s="15"/>
+      <c r="AL40" s="15"/>
+      <c r="AM40" s="15"/>
+      <c r="AN40" s="15"/>
+      <c r="AO40" s="15"/>
+      <c r="AP40" s="15"/>
+      <c r="AQ40" s="15"/>
+      <c r="AR40" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="A1:AR1"/>
-    <mergeCell ref="A2:AR2"/>
-    <mergeCell ref="A3:AR3"/>
-    <mergeCell ref="A4:AR4"/>
-    <mergeCell ref="A5:AR5"/>
     <mergeCell ref="A39:AR39"/>
     <mergeCell ref="A40:AR40"/>
     <mergeCell ref="L6:R6"/>
@@ -5218,6 +5240,12 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="A1:AR1"/>
+    <mergeCell ref="A2:AR2"/>
+    <mergeCell ref="A3:AR3"/>
+    <mergeCell ref="A4:AR4"/>
+    <mergeCell ref="A5:AR5"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
